--- a/projects/office_ee_Sys3.xlsx
+++ b/projects/office_ee_Sys3.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="TrueFalse">Lookups!$C$12:$C$13</definedName>
     <definedName name="Workflow">Lookups!$E$12:$E$13</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="886">
   <si>
     <t>type</t>
   </si>
@@ -2167,78 +2167,12 @@
     <t>kWh</t>
   </si>
   <si>
-    <t>Total Electricity Peak Modeled</t>
-  </si>
-  <si>
-    <t>kW</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 1 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 2 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 3 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 4 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 5 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 6 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 7 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 8 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 9 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 10 Modeled</t>
-  </si>
-  <si>
-    <t>Electricity Consumption Period 11 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 1 Modeled</t>
-  </si>
-  <si>
     <t>Total Gas Consumption Modeled</t>
   </si>
   <si>
     <t>therms</t>
   </si>
   <si>
-    <t>Gas Consumption Period 2 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 3 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 4 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 5 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 6 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 7 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 8 Modeled</t>
-  </si>
-  <si>
-    <t>Gas Consumption Period 9 Modeled</t>
-  </si>
-  <si>
     <t>Set Building Location And Design Days</t>
   </si>
   <si>
@@ -2464,75 +2398,6 @@
     <t>../lib/calibration_data</t>
   </si>
   <si>
-    <t>calibration_reports.electric_bill_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_peak_demand_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_9_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_10_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.electric_bill_1_period_11_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_1_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_2_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_3_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_4_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_5_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_6_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_7_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_8_consumption_modeled</t>
-  </si>
-  <si>
-    <t>calibration_reports.gas_bill_2_period_9_consumption_modeled</t>
-  </si>
-  <si>
     <t>ReplaceAllT12Lampswith25WT8Lamps</t>
   </si>
   <si>
@@ -2690,6 +2555,150 @@
   </si>
   <si>
     <t>gal</t>
+  </si>
+  <si>
+    <t>Natural Gas Heating Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.heating_natural_gas</t>
+  </si>
+  <si>
+    <t>Cooling Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.cooling_electricity</t>
+  </si>
+  <si>
+    <t>Interior Lighting Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.interior_lighting_electricity</t>
+  </si>
+  <si>
+    <t>Exterior Lighting Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.exterior_lighting_electricity</t>
+  </si>
+  <si>
+    <t>Equipment Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.interior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>Equipment Natural Gas Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.interior_equipment_natural_gas</t>
+  </si>
+  <si>
+    <t>Experior Equipment Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.exterior_equipment_electricity</t>
+  </si>
+  <si>
+    <t>Fans Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.fans_electricity</t>
+  </si>
+  <si>
+    <t>Pumps Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.pumps_electricity</t>
+  </si>
+  <si>
+    <t>Heat Rejection Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.heat_rejection_electricity</t>
+  </si>
+  <si>
+    <t>Humidification Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.humidification_electricity</t>
+  </si>
+  <si>
+    <t>Water Systems Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.water_systems_electricity</t>
+  </si>
+  <si>
+    <t>Water Systems Natural Gas Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.water_systems_natural_gas</t>
+  </si>
+  <si>
+    <t>Refrigeration Electricity Intensity</t>
+  </si>
+  <si>
+    <t>standard_report_legacy.refrigeration_electricity</t>
+  </si>
+  <si>
+    <t>Unmet Cooling Hours</t>
+  </si>
+  <si>
+    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
+  </si>
+  <si>
+    <t>hrs</t>
+  </si>
+  <si>
+    <t>Unmet Heating Hours</t>
+  </si>
+  <si>
+    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
+  </si>
+  <si>
+    <t>Total Unmet Hours</t>
+  </si>
+  <si>
+    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
+  </si>
+  <si>
+    <t>Building Area</t>
+  </si>
+  <si>
+    <t>standard_report.total_building_area</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_modeled</t>
+  </si>
+  <si>
+    <t>Electric CVRMSE</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>Electric NMBE</t>
+  </si>
+  <si>
+    <t>calibration_reports.electric_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>Gas CVRMSE</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_cvrmse</t>
+  </si>
+  <si>
+    <t>Gas NMBE</t>
+  </si>
+  <si>
+    <t>calibration_reports.gas_bill_consumption_nmbe</t>
   </si>
 </sst>
 </file>
@@ -2699,7 +2708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2763,8 +2772,22 @@
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2831,6 +2854,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCD5B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4671,7 +4706,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -4736,7 +4771,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -4782,6 +4816,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1828">
@@ -6917,18 +6961,18 @@
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="81.85546875" customWidth="1"/>
+    <col min="1" max="1" width="81.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="45">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:1" ht="28">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:1" ht="28">
+      <c r="A2" s="35" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6951,14 +6995,14 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="1"/>
+    <col min="4" max="4" width="33.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6990,7 +7034,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
+    <row r="4" spans="1:5" ht="28">
       <c r="A4" s="1" t="s">
         <v>456</v>
       </c>
@@ -7001,7 +7045,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75">
+    <row r="5" spans="1:5" ht="42">
       <c r="A5" s="1" t="s">
         <v>469</v>
       </c>
@@ -7012,29 +7056,29 @@
         <v>614</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45.95" customHeight="1">
+    <row r="6" spans="1:5" ht="46" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>470</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>783</v>
+        <v>761</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>442</v>
       </c>
       <c r="B7" s="25" t="s">
         <v>592</v>
       </c>
-      <c r="C7" s="33" t="str">
+      <c r="C7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,2,FALSE)&amp;VLOOKUP($B7,instance_defs,4,FALSE)</f>
         <v>4 Cores - Recommended for Server</v>
       </c>
-      <c r="D7" s="33" t="str">
+      <c r="D7" s="32" t="str">
         <f>VLOOKUP($B7,instance_defs,3,FALSE)</f>
         <v>$0.28/hour</v>
       </c>
@@ -7042,18 +7086,18 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
+    <row r="8" spans="1:5" ht="28">
       <c r="A8" s="1" t="s">
         <v>443</v>
       </c>
       <c r="B8" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="C8" s="33" t="str">
+      <c r="C8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,2,FALSE)&amp;VLOOKUP($B8,instance_defs,4,FALSE)</f>
         <v>8 Cores - Worker Only - Recommended for Worker</v>
       </c>
-      <c r="D8" s="33" t="str">
+      <c r="D8" s="32" t="str">
         <f>VLOOKUP($B8,instance_defs,3,FALSE)</f>
         <v>$0.42/hour</v>
       </c>
@@ -7069,7 +7113,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="D9" s="33"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="2" t="s">
         <v>606</v>
       </c>
@@ -7088,7 +7132,7 @@
         <v>39</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>784</v>
+        <v>762</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>471</v>
@@ -7099,10 +7143,10 @@
         <v>25</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>804</v>
+        <v>782</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -7110,10 +7154,10 @@
         <v>26</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>805</v>
+        <v>783</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>769</v>
+        <v>747</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -7127,7 +7171,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>463</v>
       </c>
@@ -7160,7 +7204,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A20" s="11" t="s">
         <v>27</v>
       </c>
@@ -7185,7 +7229,7 @@
       <c r="B22" s="26"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="42">
       <c r="A23" s="11" t="s">
         <v>450</v>
       </c>
@@ -7212,7 +7256,7 @@
       <c r="C24" s="30" t="s">
         <v>572</v>
       </c>
-      <c r="D24" s="35"/>
+      <c r="D24" s="34"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="30" t="s">
@@ -7224,63 +7268,63 @@
       <c r="C25" s="30" t="s">
         <v>588</v>
       </c>
-      <c r="D25" s="35"/>
+      <c r="D25" s="34"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="31"/>
       <c r="B26" s="29"/>
       <c r="C26" s="30"/>
-      <c r="D26" s="35"/>
+      <c r="D26" s="34"/>
     </row>
     <row r="27" spans="1:5" s="31" customFormat="1">
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
-      <c r="D27" s="35"/>
+      <c r="D27" s="34"/>
     </row>
     <row r="28" spans="1:5" s="31" customFormat="1">
       <c r="C28" s="30"/>
-      <c r="D28" s="35"/>
+      <c r="D28" s="34"/>
     </row>
     <row r="29" spans="1:5" s="31" customFormat="1">
       <c r="C29" s="30"/>
-      <c r="D29" s="35"/>
+      <c r="D29" s="34"/>
     </row>
     <row r="30" spans="1:5" s="31" customFormat="1">
       <c r="B30" s="26"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="35"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="34"/>
     </row>
     <row r="31" spans="1:5" s="31" customFormat="1">
       <c r="B31" s="26"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
     </row>
     <row r="32" spans="1:5" s="31" customFormat="1">
       <c r="B32" s="26"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="34"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="31"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
     </row>
     <row r="34" spans="1:5" s="31" customFormat="1">
       <c r="B34" s="26"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="34"/>
     </row>
     <row r="35" spans="1:5" s="31" customFormat="1">
       <c r="B35" s="26"/>
       <c r="C35" s="26"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="45">
+    <row r="36" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>31</v>
@@ -7296,7 +7340,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="30">
+    <row r="39" spans="1:5" s="2" customFormat="1" ht="28">
       <c r="A39" s="11" t="s">
         <v>30</v>
       </c>
@@ -7307,7 +7351,7 @@
         <v>38</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>768</v>
+        <v>746</v>
       </c>
       <c r="E39" s="13" t="s">
         <v>449</v>
@@ -7325,7 +7369,7 @@
       </c>
       <c r="E40" s="2"/>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="60">
+    <row r="42" spans="1:5" s="2" customFormat="1" ht="56">
       <c r="A42" s="11" t="s">
         <v>35</v>
       </c>
@@ -7333,7 +7377,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>773</v>
+        <v>751</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="13" t="s">
@@ -7342,13 +7386,13 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="31" t="s">
-        <v>785</v>
+        <v>763</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>786</v>
+        <v>764</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>806</v>
+        <v>784</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="31" customFormat="1">
@@ -7381,37 +7425,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="120" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="31" customWidth="1"/>
     <col min="2" max="2" width="47" style="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47" style="31" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="31" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.140625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" style="31"/>
-    <col min="16" max="16" width="11.42578125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="39.1640625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="35.1640625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
+    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="31"/>
+    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
-    <col min="18" max="18" width="27.7109375" style="31" customWidth="1"/>
-    <col min="19" max="19" width="46.140625" style="31" customWidth="1"/>
-    <col min="20" max="22" width="11.42578125" style="31"/>
-    <col min="23" max="23" width="13.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="11.42578125" style="31"/>
+    <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
+    <col min="20" max="22" width="11.5" style="31"/>
+    <col min="23" max="23" width="13.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="18.75">
+    <row r="1" spans="1:25" ht="18">
       <c r="A1" s="5"/>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -7430,23 +7474,23 @@
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="37" t="s">
+      <c r="O1" s="36" t="s">
         <v>474</v>
       </c>
       <c r="P1" s="23"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="54" t="s">
+      <c r="T1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="54"/>
-      <c r="V1" s="54"/>
-      <c r="W1" s="54"/>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-    </row>
-    <row r="2" spans="1:25" s="8" customFormat="1" ht="15.75">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+    </row>
+    <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
@@ -7462,7 +7506,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:25" s="14" customFormat="1" ht="63">
+    <row r="3" spans="1:25" s="14" customFormat="1" ht="45">
       <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
@@ -7536,40 +7580,40 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:25" s="38" customFormat="1">
-      <c r="A4" s="38" t="b">
+    <row r="4" spans="1:25" s="37" customFormat="1">
+      <c r="A4" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>732</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>733</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>733</v>
-      </c>
-      <c r="E4" s="38" t="s">
+      <c r="B4" s="37" t="s">
+        <v>710</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>711</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:25" s="30" customFormat="1">
       <c r="B5" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>770</v>
+        <v>748</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>771</v>
+        <v>749</v>
       </c>
       <c r="F5" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H5" s="30" t="s">
-        <v>772</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="30" customFormat="1">
@@ -7577,36 +7621,36 @@
         <v>21</v>
       </c>
       <c r="D6" s="30" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="E6" s="30" t="s">
-        <v>735</v>
+        <v>713</v>
       </c>
       <c r="F6" s="30" t="s">
         <v>104</v>
       </c>
       <c r="H6" s="31" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" s="38" customFormat="1">
-      <c r="A7" s="38" t="b">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" s="37" customFormat="1">
+      <c r="A7" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="38" t="s">
+      <c r="B7" s="37" t="s">
         <v>660</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="37" t="s">
         <v>648</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
     </row>
     <row r="8" spans="1:25">
       <c r="B8" s="31" t="s">
@@ -7622,7 +7666,7 @@
         <v>618</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>737</v>
+        <v>715</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -7630,7 +7674,7 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
-      <c r="P8" s="40"/>
+      <c r="P8" s="39"/>
       <c r="Q8" s="2"/>
     </row>
     <row r="9" spans="1:25">
@@ -7647,7 +7691,7 @@
         <v>618</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>865</v>
+        <v>820</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -7710,26 +7754,26 @@
       </c>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:25" s="38" customFormat="1">
-      <c r="A13" s="38" t="b">
+    <row r="13" spans="1:25" s="37" customFormat="1">
+      <c r="A13" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>739</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>738</v>
-      </c>
-      <c r="D13" s="38" t="s">
-        <v>738</v>
-      </c>
-      <c r="E13" s="38" t="s">
+      <c r="B13" s="37" t="s">
+        <v>717</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>716</v>
+      </c>
+      <c r="E13" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="1:25" s="30" customFormat="1" ht="18">
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:25" s="30" customFormat="1" ht="17">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -7743,29 +7787,29 @@
         <v>64</v>
       </c>
       <c r="G14" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="H14" s="53">
+        <v>744</v>
+      </c>
+      <c r="H14" s="52">
         <v>104666</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="30" customFormat="1">
-      <c r="A15" s="43"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43" t="s">
+      <c r="C15" s="42"/>
+      <c r="D15" s="42" t="s">
         <v>662</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43">
+      <c r="G15" s="42"/>
+      <c r="H15" s="42">
         <v>2</v>
       </c>
     </row>
@@ -7787,24 +7831,24 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="30" customFormat="1">
-      <c r="A17" s="43"/>
+      <c r="A17" s="42"/>
       <c r="B17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42" t="s">
         <v>663</v>
       </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="F17" s="43" t="s">
+      <c r="F17" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="43" t="s">
-        <v>767</v>
-      </c>
-      <c r="H17" s="43">
+      <c r="G17" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="H17" s="42">
         <v>12</v>
       </c>
     </row>
@@ -7813,15 +7857,15 @@
         <v>21</v>
       </c>
       <c r="D18" s="30" t="s">
-        <v>740</v>
+        <v>718</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>741</v>
+        <v>719</v>
       </c>
       <c r="F18" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="41">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -7830,15 +7874,15 @@
         <v>21</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>742</v>
+        <v>720</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <v>0.15</v>
       </c>
     </row>
@@ -7847,15 +7891,15 @@
         <v>21</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>745</v>
+        <v>723</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <v>0.02</v>
       </c>
     </row>
@@ -7864,15 +7908,15 @@
         <v>21</v>
       </c>
       <c r="D21" s="30" t="s">
-        <v>746</v>
+        <v>724</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>747</v>
+        <v>725</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <v>0.08</v>
       </c>
     </row>
@@ -7881,15 +7925,15 @@
         <v>21</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>748</v>
+        <v>726</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>749</v>
+        <v>727</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <v>0.12</v>
       </c>
     </row>
@@ -7898,15 +7942,15 @@
         <v>21</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>750</v>
+        <v>728</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>751</v>
+        <v>729</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <v>0.02</v>
       </c>
     </row>
@@ -7915,15 +7959,15 @@
         <v>21</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>752</v>
+        <v>730</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>753</v>
+        <v>731</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
@@ -7932,15 +7976,15 @@
         <v>21</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>754</v>
+        <v>732</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>755</v>
+        <v>733</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <v>0.06</v>
       </c>
     </row>
@@ -7949,15 +7993,15 @@
         <v>21</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>756</v>
+        <v>734</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>757</v>
+        <v>735</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
@@ -7966,15 +8010,15 @@
         <v>21</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>758</v>
+        <v>736</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>759</v>
+        <v>737</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H27" s="42">
+      <c r="H27" s="41">
         <v>0.04</v>
       </c>
     </row>
@@ -7983,15 +8027,15 @@
         <v>21</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>760</v>
+        <v>738</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>761</v>
+        <v>739</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="41">
         <v>0.03</v>
       </c>
     </row>
@@ -8000,15 +8044,15 @@
         <v>21</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>762</v>
+        <v>740</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -8017,36 +8061,36 @@
         <v>21</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>765</v>
+        <v>743</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <v>0.02</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="38" customFormat="1">
-      <c r="A31" s="38" t="b">
+    <row r="31" spans="1:9" s="37" customFormat="1">
+      <c r="A31" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B31" s="38" t="s">
+      <c r="B31" s="37" t="s">
         <v>664</v>
       </c>
-      <c r="C31" s="38" t="s">
+      <c r="C31" s="37" t="s">
         <v>665</v>
       </c>
-      <c r="D31" s="38" t="s">
+      <c r="D31" s="37" t="s">
         <v>665</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
     </row>
     <row r="32" spans="1:9">
       <c r="B32" s="31" t="s">
@@ -8064,20 +8108,20 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:17" s="38" customFormat="1">
-      <c r="A33" s="38" t="b">
+    <row r="33" spans="1:17" s="37" customFormat="1">
+      <c r="A33" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B33" s="38" t="s">
-        <v>833</v>
-      </c>
-      <c r="C33" s="38" t="s">
-        <v>832</v>
-      </c>
-      <c r="D33" s="38" t="s">
-        <v>832</v>
-      </c>
-      <c r="E33" s="38" t="s">
+      <c r="B33" s="37" t="s">
+        <v>788</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="D33" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="E33" s="37" t="s">
         <v>68</v>
       </c>
     </row>
@@ -8086,10 +8130,10 @@
         <v>21</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>787</v>
+        <v>765</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>788</v>
+        <v>766</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>64</v>
@@ -8103,10 +8147,10 @@
         <v>21</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>789</v>
+        <v>767</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>790</v>
+        <v>768</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>64</v>
@@ -8115,31 +8159,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="38" customFormat="1">
-      <c r="A36" s="38" t="b">
+    <row r="36" spans="1:17" s="37" customFormat="1">
+      <c r="A36" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B36" s="38" t="s">
-        <v>857</v>
-      </c>
-      <c r="C36" s="38" t="s">
+      <c r="B36" s="37" t="s">
+        <v>812</v>
+      </c>
+      <c r="C36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="38" t="s">
+      <c r="D36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="E36" s="38" t="s">
+      <c r="E36" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:17">
       <c r="B37" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D37" s="31" t="s">
-        <v>858</v>
+        <v>813</v>
       </c>
       <c r="E37" s="31" t="s">
         <v>75</v>
@@ -8148,31 +8192,31 @@
         <v>619</v>
       </c>
       <c r="G37" s="31" t="s">
-        <v>859</v>
+        <v>814</v>
       </c>
       <c r="H37" s="31">
         <v>10</v>
       </c>
       <c r="I37" s="31"/>
     </row>
-    <row r="38" spans="1:17" s="38" customFormat="1">
-      <c r="A38" s="38" t="b">
+    <row r="38" spans="1:17" s="37" customFormat="1">
+      <c r="A38" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="37" t="s">
         <v>679</v>
       </c>
-      <c r="C38" s="38" t="s">
+      <c r="C38" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="38" t="s">
+      <c r="D38" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E38" s="38" t="s">
+      <c r="E38" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:17">
       <c r="B39" s="31" t="s">
@@ -8196,7 +8240,7 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-      <c r="P39" s="40"/>
+      <c r="P39" s="39"/>
       <c r="Q39" s="2"/>
     </row>
     <row r="40" spans="1:17">
@@ -8224,7 +8268,7 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-      <c r="P40" s="40"/>
+      <c r="P40" s="39"/>
       <c r="Q40" s="2"/>
     </row>
     <row r="41" spans="1:17">
@@ -8252,27 +8296,27 @@
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
-      <c r="P41" s="40"/>
+      <c r="P41" s="39"/>
       <c r="Q41" s="2"/>
     </row>
-    <row r="42" spans="1:17" s="38" customFormat="1">
-      <c r="A42" s="38" t="b">
+    <row r="42" spans="1:17" s="37" customFormat="1">
+      <c r="A42" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="37" t="s">
         <v>686</v>
       </c>
-      <c r="C42" s="38" t="s">
+      <c r="C42" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="38" t="s">
+      <c r="D42" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E42" s="38" t="s">
+      <c r="E42" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:17">
       <c r="B43" s="31" t="s">
@@ -8296,7 +8340,7 @@
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
-      <c r="P43" s="40"/>
+      <c r="P43" s="39"/>
       <c r="Q43" s="2"/>
     </row>
     <row r="44" spans="1:17">
@@ -8324,7 +8368,7 @@
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
-      <c r="P44" s="40"/>
+      <c r="P44" s="39"/>
       <c r="Q44" s="2"/>
     </row>
     <row r="45" spans="1:17">
@@ -8352,27 +8396,27 @@
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
-      <c r="P45" s="40"/>
+      <c r="P45" s="39"/>
       <c r="Q45" s="2"/>
     </row>
-    <row r="46" spans="1:17" s="38" customFormat="1">
-      <c r="A46" s="38" t="b">
+    <row r="46" spans="1:17" s="37" customFormat="1">
+      <c r="A46" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B46" s="38" t="s">
+      <c r="B46" s="37" t="s">
         <v>687</v>
       </c>
-      <c r="C46" s="38" t="s">
+      <c r="C46" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="38" t="s">
+      <c r="D46" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="38" t="s">
+      <c r="E46" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:17">
       <c r="B47" s="31" t="s">
@@ -8396,7 +8440,7 @@
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
-      <c r="P47" s="40"/>
+      <c r="P47" s="39"/>
       <c r="Q47" s="2"/>
     </row>
     <row r="48" spans="1:17">
@@ -8424,7 +8468,7 @@
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
-      <c r="P48" s="40"/>
+      <c r="P48" s="39"/>
       <c r="Q48" s="2"/>
     </row>
     <row r="49" spans="1:17">
@@ -8452,27 +8496,27 @@
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
-      <c r="P49" s="40"/>
+      <c r="P49" s="39"/>
       <c r="Q49" s="2"/>
     </row>
-    <row r="50" spans="1:17" s="38" customFormat="1">
-      <c r="A50" s="38" t="b">
+    <row r="50" spans="1:17" s="37" customFormat="1">
+      <c r="A50" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B50" s="38" t="s">
+      <c r="B50" s="37" t="s">
         <v>680</v>
       </c>
-      <c r="C50" s="38" t="s">
+      <c r="C50" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="38" t="s">
+      <c r="D50" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E50" s="38" t="s">
+      <c r="E50" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:17">
       <c r="B51" s="31" t="s">
@@ -8496,7 +8540,7 @@
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
-      <c r="P51" s="40"/>
+      <c r="P51" s="39"/>
       <c r="Q51" s="2"/>
     </row>
     <row r="52" spans="1:17">
@@ -8524,7 +8568,7 @@
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
-      <c r="P52" s="40"/>
+      <c r="P52" s="39"/>
       <c r="Q52" s="2"/>
     </row>
     <row r="53" spans="1:17">
@@ -8552,27 +8596,27 @@
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
-      <c r="P53" s="40"/>
+      <c r="P53" s="39"/>
       <c r="Q53" s="2"/>
     </row>
-    <row r="54" spans="1:17" s="38" customFormat="1">
-      <c r="A54" s="38" t="b">
+    <row r="54" spans="1:17" s="37" customFormat="1">
+      <c r="A54" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="37" t="s">
         <v>690</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="D54" s="38" t="s">
+      <c r="D54" s="37" t="s">
         <v>689</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:17">
       <c r="B55" s="31" t="s">
@@ -8623,7 +8667,7 @@
       <c r="F57" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H57" s="41" t="s">
+      <c r="H57" s="40" t="s">
         <v>700</v>
       </c>
       <c r="I57" s="31"/>
@@ -8641,45 +8685,45 @@
       <c r="F58" s="31" t="s">
         <v>618</v>
       </c>
-      <c r="H58" s="41" t="s">
+      <c r="H58" s="40" t="s">
         <v>699</v>
       </c>
       <c r="I58" s="31"/>
     </row>
-    <row r="59" spans="1:17" s="38" customFormat="1">
-      <c r="A59" s="38" t="b">
+    <row r="59" spans="1:17" s="37" customFormat="1">
+      <c r="A59" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B59" s="38" t="s">
-        <v>875</v>
-      </c>
-      <c r="C59" s="38" t="s">
-        <v>876</v>
-      </c>
-      <c r="D59" s="38" t="s">
-        <v>876</v>
-      </c>
-      <c r="E59" s="38" t="s">
+      <c r="B59" s="37" t="s">
+        <v>830</v>
+      </c>
+      <c r="C59" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="D59" s="37" t="s">
+        <v>831</v>
+      </c>
+      <c r="E59" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:17">
       <c r="B60" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>877</v>
+        <v>832</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>878</v>
+        <v>833</v>
       </c>
       <c r="F60" s="31" t="s">
         <v>618</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>879</v>
+        <v>834</v>
       </c>
       <c r="I60" s="31"/>
     </row>
@@ -8688,94 +8732,94 @@
         <v>21</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>880</v>
+        <v>835</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>881</v>
+        <v>836</v>
       </c>
       <c r="F61" s="31" t="s">
         <v>619</v>
       </c>
       <c r="G61" s="31" t="s">
-        <v>882</v>
+        <v>837</v>
       </c>
       <c r="H61" s="31">
         <v>1</v>
       </c>
       <c r="I61" s="31"/>
     </row>
-    <row r="62" spans="1:17" s="38" customFormat="1">
-      <c r="A62" s="38" t="b">
+    <row r="62" spans="1:17" s="37" customFormat="1">
+      <c r="A62" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>704</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="D62" s="38" t="s">
+      <c r="D62" s="37" t="s">
         <v>703</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
-    </row>
-    <row r="63" spans="1:17" s="38" customFormat="1">
-      <c r="A63" s="38" t="b">
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="1:17" s="37" customFormat="1">
+      <c r="A63" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B63" s="38" t="s">
-        <v>774</v>
-      </c>
-      <c r="C63" s="38" t="s">
+      <c r="B63" s="37" t="s">
+        <v>752</v>
+      </c>
+      <c r="C63" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="38" t="s">
+      <c r="D63" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E63" s="38" t="s">
+      <c r="E63" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
-    </row>
-    <row r="64" spans="1:17" s="43" customFormat="1">
-      <c r="B64" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D64" s="43" t="s">
-        <v>775</v>
-      </c>
-      <c r="E64" s="43" t="s">
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="1:17" s="42" customFormat="1">
+      <c r="B64" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D64" s="42" t="s">
+        <v>753</v>
+      </c>
+      <c r="E64" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F64" s="43" t="s">
+      <c r="F64" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H64" s="43">
+      <c r="H64" s="42">
         <v>0.44400000000000001</v>
       </c>
-      <c r="J64" s="43">
+      <c r="J64" s="42">
         <v>0.3</v>
       </c>
-      <c r="K64" s="43">
+      <c r="K64" s="42">
         <v>0.5</v>
       </c>
-      <c r="L64" s="43">
+      <c r="L64" s="42">
         <v>0.4</v>
       </c>
-      <c r="M64" s="43">
+      <c r="M64" s="42">
         <f>(K64+J64)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N64" s="43">
+      <c r="N64" s="42">
         <v>0.01</v>
       </c>
-      <c r="Q64" s="43" t="s">
-        <v>776</v>
+      <c r="Q64" s="42" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="65" spans="1:17" s="30" customFormat="1">
@@ -8815,59 +8859,59 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="38" customFormat="1">
-      <c r="A67" s="38" t="b">
+    <row r="67" spans="1:17" s="37" customFormat="1">
+      <c r="A67" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B67" s="38" t="s">
-        <v>777</v>
-      </c>
-      <c r="C67" s="38" t="s">
+      <c r="B67" s="37" t="s">
+        <v>755</v>
+      </c>
+      <c r="C67" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="38" t="s">
+      <c r="D67" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="38" t="s">
+      <c r="E67" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
-    </row>
-    <row r="68" spans="1:17" s="43" customFormat="1">
-      <c r="B68" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D68" s="43" t="s">
-        <v>778</v>
-      </c>
-      <c r="E68" s="43" t="s">
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+    </row>
+    <row r="68" spans="1:17" s="42" customFormat="1">
+      <c r="B68" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D68" s="42" t="s">
+        <v>756</v>
+      </c>
+      <c r="E68" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F68" s="43" t="s">
+      <c r="F68" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H68" s="43">
+      <c r="H68" s="42">
         <v>0.2</v>
       </c>
-      <c r="J68" s="43">
+      <c r="J68" s="42">
         <v>0.3</v>
       </c>
-      <c r="K68" s="43">
+      <c r="K68" s="42">
         <v>0.5</v>
       </c>
-      <c r="L68" s="43">
+      <c r="L68" s="42">
         <v>0.4</v>
       </c>
-      <c r="M68" s="43">
+      <c r="M68" s="42">
         <f>(K68+J68)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N68" s="43">
+      <c r="N68" s="42">
         <v>0.01</v>
       </c>
-      <c r="Q68" s="43" t="s">
-        <v>776</v>
+      <c r="Q68" s="42" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="69" spans="1:17" s="30" customFormat="1">
@@ -8907,59 +8951,59 @@
         <v>84</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="38" customFormat="1">
-      <c r="A71" s="38" t="b">
+    <row r="71" spans="1:17" s="37" customFormat="1">
+      <c r="A71" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B71" s="38" t="s">
-        <v>779</v>
-      </c>
-      <c r="C71" s="38" t="s">
+      <c r="B71" s="37" t="s">
+        <v>757</v>
+      </c>
+      <c r="C71" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="38" t="s">
+      <c r="D71" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="38" t="s">
+      <c r="E71" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G71" s="39"/>
-      <c r="H71" s="39"/>
-    </row>
-    <row r="72" spans="1:17" s="43" customFormat="1">
-      <c r="B72" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D72" s="43" t="s">
-        <v>780</v>
-      </c>
-      <c r="E72" s="43" t="s">
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+    </row>
+    <row r="72" spans="1:17" s="42" customFormat="1">
+      <c r="B72" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="42" t="s">
+        <v>758</v>
+      </c>
+      <c r="E72" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="F72" s="43" t="s">
+      <c r="F72" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H72" s="43">
+      <c r="H72" s="42">
         <v>0.3</v>
       </c>
-      <c r="J72" s="43">
+      <c r="J72" s="42">
         <v>0.3</v>
       </c>
-      <c r="K72" s="43">
+      <c r="K72" s="42">
         <v>0.5</v>
       </c>
-      <c r="L72" s="43">
+      <c r="L72" s="42">
         <v>0.4</v>
       </c>
-      <c r="M72" s="43">
+      <c r="M72" s="42">
         <f>(K72+J72)/6</f>
         <v>0.13333333333333333</v>
       </c>
-      <c r="N72" s="43">
+      <c r="N72" s="42">
         <v>0.01</v>
       </c>
-      <c r="Q72" s="43" t="s">
-        <v>776</v>
+      <c r="Q72" s="42" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="73" spans="1:17" s="30" customFormat="1">
@@ -8999,24 +9043,24 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:17" s="38" customFormat="1">
-      <c r="A75" s="38" t="b">
+    <row r="75" spans="1:17" s="37" customFormat="1">
+      <c r="A75" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B75" s="38" t="s">
+      <c r="B75" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="38" t="s">
+      <c r="C75" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D75" s="38" t="s">
+      <c r="D75" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="E75" s="38" t="s">
+      <c r="E75" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G75" s="39"/>
-      <c r="H75" s="39"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
     </row>
     <row r="76" spans="1:17" s="30" customFormat="1">
       <c r="B76" s="30" t="s">
@@ -9039,40 +9083,40 @@
       </c>
       <c r="O76" s="31"/>
     </row>
-    <row r="77" spans="1:17" s="43" customFormat="1">
-      <c r="B77" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D77" s="44" t="s">
-        <v>781</v>
-      </c>
-      <c r="E77" s="43" t="s">
+    <row r="77" spans="1:17" s="42" customFormat="1">
+      <c r="B77" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" s="43" t="s">
+        <v>759</v>
+      </c>
+      <c r="E77" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="F77" s="43" t="s">
+      <c r="F77" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H77" s="43">
+      <c r="H77" s="42">
         <v>-20</v>
       </c>
-      <c r="J77" s="45">
+      <c r="J77" s="44">
         <v>-100</v>
       </c>
-      <c r="K77" s="45">
+      <c r="K77" s="44">
         <v>100</v>
       </c>
-      <c r="L77" s="45">
-        <v>0</v>
-      </c>
-      <c r="M77" s="45">
+      <c r="L77" s="44">
+        <v>0</v>
+      </c>
+      <c r="M77" s="44">
         <f>(K77-J77)/6</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="N77" s="45">
+      <c r="N77" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q77" s="43" t="s">
-        <v>776</v>
+      <c r="Q77" s="42" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="78" spans="1:17" s="30" customFormat="1">
@@ -9129,24 +9173,24 @@
       </c>
       <c r="O80" s="31"/>
     </row>
-    <row r="81" spans="1:17" s="38" customFormat="1">
-      <c r="A81" s="38" t="b">
+    <row r="81" spans="1:17" s="37" customFormat="1">
+      <c r="A81" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B81" s="38" t="s">
+      <c r="B81" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C81" s="38" t="s">
+      <c r="C81" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="D81" s="38" t="s">
+      <c r="D81" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="E81" s="38" t="s">
+      <c r="E81" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
     </row>
     <row r="82" spans="1:17">
       <c r="A82" s="30"/>
@@ -9175,43 +9219,43 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-      <c r="P82" s="40"/>
-    </row>
-    <row r="83" spans="1:17" s="43" customFormat="1">
-      <c r="B83" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D83" s="43" t="s">
-        <v>782</v>
-      </c>
-      <c r="E83" s="43" t="s">
+      <c r="P82" s="39"/>
+    </row>
+    <row r="83" spans="1:17" s="42" customFormat="1">
+      <c r="B83" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="42" t="s">
+        <v>760</v>
+      </c>
+      <c r="E83" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="43" t="s">
+      <c r="F83" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H83" s="43">
+      <c r="H83" s="42">
         <v>30</v>
       </c>
-      <c r="I83" s="46"/>
-      <c r="J83" s="45">
+      <c r="I83" s="45"/>
+      <c r="J83" s="44">
         <v>-40</v>
       </c>
-      <c r="K83" s="45">
+      <c r="K83" s="44">
         <v>40</v>
       </c>
-      <c r="L83" s="45">
+      <c r="L83" s="44">
         <v>-1</v>
       </c>
-      <c r="M83" s="45">
+      <c r="M83" s="44">
         <f>(K83-J83)/6</f>
         <v>13.333333333333334</v>
       </c>
-      <c r="N83" s="45">
+      <c r="N83" s="44">
         <v>2.5</v>
       </c>
-      <c r="P83" s="47"/>
-      <c r="Q83" s="43" t="s">
+      <c r="P83" s="46"/>
+      <c r="Q83" s="42" t="s">
         <v>24</v>
       </c>
     </row>
@@ -9221,7 +9265,7 @@
         <v>21</v>
       </c>
       <c r="C84" s="30"/>
-      <c r="D84" s="48" t="s">
+      <c r="D84" s="47" t="s">
         <v>47</v>
       </c>
       <c r="E84" s="30" t="s">
@@ -9239,7 +9283,7 @@
       <c r="L84" s="3"/>
       <c r="M84" s="3"/>
       <c r="N84" s="3"/>
-      <c r="P84" s="40"/>
+      <c r="P84" s="39"/>
     </row>
     <row r="85" spans="1:17">
       <c r="A85" s="30"/>
@@ -9265,7 +9309,7 @@
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
       <c r="N85" s="3"/>
-      <c r="P85" s="40"/>
+      <c r="P85" s="39"/>
     </row>
     <row r="86" spans="1:17">
       <c r="A86" s="30"/>
@@ -9291,7 +9335,7 @@
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
       <c r="N86" s="3"/>
-      <c r="P86" s="40"/>
+      <c r="P86" s="39"/>
     </row>
     <row r="87" spans="1:17">
       <c r="A87" s="30"/>
@@ -9317,7 +9361,7 @@
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
       <c r="N87" s="3"/>
-      <c r="P87" s="40"/>
+      <c r="P87" s="39"/>
     </row>
     <row r="88" spans="1:17">
       <c r="A88" s="30"/>
@@ -9343,7 +9387,7 @@
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
       <c r="N88" s="3"/>
-      <c r="P88" s="40"/>
+      <c r="P88" s="39"/>
     </row>
     <row r="89" spans="1:17">
       <c r="A89" s="30"/>
@@ -9369,7 +9413,7 @@
       <c r="L89" s="3"/>
       <c r="M89" s="3"/>
       <c r="N89" s="3"/>
-      <c r="P89" s="40"/>
+      <c r="P89" s="39"/>
     </row>
     <row r="90" spans="1:17">
       <c r="A90" s="30"/>
@@ -9395,26 +9439,26 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-      <c r="P90" s="40"/>
-    </row>
-    <row r="91" spans="1:17" s="38" customFormat="1">
-      <c r="A91" s="38" t="b">
+      <c r="P90" s="39"/>
+    </row>
+    <row r="91" spans="1:17" s="37" customFormat="1">
+      <c r="A91" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B91" s="38" t="s">
+      <c r="B91" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="C91" s="38" t="s">
+      <c r="C91" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="D91" s="38" t="s">
+      <c r="D91" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="E91" s="38" t="s">
+      <c r="E91" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
     </row>
     <row r="92" spans="1:17">
       <c r="A92" s="30"/>
@@ -9443,254 +9487,254 @@
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
       <c r="N92" s="3"/>
-      <c r="P92" s="40"/>
-    </row>
-    <row r="93" spans="1:17" s="43" customFormat="1">
-      <c r="B93" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D93" s="43" t="s">
-        <v>850</v>
-      </c>
-      <c r="E93" s="43" t="s">
+      <c r="P92" s="39"/>
+    </row>
+    <row r="93" spans="1:17" s="42" customFormat="1">
+      <c r="B93" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D93" s="42" t="s">
+        <v>805</v>
+      </c>
+      <c r="E93" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="F93" s="43" t="s">
+      <c r="F93" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H93" s="43">
+      <c r="H93" s="42">
         <v>30</v>
       </c>
-      <c r="I93" s="46"/>
-      <c r="J93" s="45">
+      <c r="I93" s="45"/>
+      <c r="J93" s="44">
         <v>-100</v>
       </c>
-      <c r="K93" s="45">
+      <c r="K93" s="44">
         <v>100</v>
       </c>
-      <c r="L93" s="45">
-        <v>0</v>
-      </c>
-      <c r="M93" s="45">
+      <c r="L93" s="44">
+        <v>0</v>
+      </c>
+      <c r="M93" s="44">
         <f>(K93-J93)/6</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="N93" s="45">
+      <c r="N93" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q93" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" s="38" customFormat="1">
-      <c r="A94" s="38" t="b">
+      <c r="Q93" s="42" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" s="37" customFormat="1">
+      <c r="A94" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B94" s="38" t="s">
-        <v>853</v>
-      </c>
-      <c r="C94" s="38" t="s">
-        <v>851</v>
-      </c>
-      <c r="D94" s="38" t="s">
-        <v>851</v>
-      </c>
-      <c r="E94" s="38" t="s">
+      <c r="B94" s="37" t="s">
+        <v>808</v>
+      </c>
+      <c r="C94" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="D94" s="37" t="s">
+        <v>806</v>
+      </c>
+      <c r="E94" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-    </row>
-    <row r="95" spans="1:17" s="43" customFormat="1">
-      <c r="B95" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D95" s="43" t="s">
-        <v>855</v>
-      </c>
-      <c r="E95" s="43" t="s">
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+    </row>
+    <row r="95" spans="1:17" s="42" customFormat="1">
+      <c r="B95" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D95" s="42" t="s">
+        <v>810</v>
+      </c>
+      <c r="E95" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="F95" s="43" t="s">
+      <c r="F95" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H95" s="43">
+      <c r="H95" s="42">
         <v>30</v>
       </c>
-      <c r="I95" s="46"/>
-      <c r="J95" s="45">
+      <c r="I95" s="45"/>
+      <c r="J95" s="44">
         <v>-100</v>
       </c>
-      <c r="K95" s="45">
+      <c r="K95" s="44">
         <v>100</v>
       </c>
-      <c r="L95" s="45">
-        <v>0</v>
-      </c>
-      <c r="M95" s="45">
+      <c r="L95" s="44">
+        <v>0</v>
+      </c>
+      <c r="M95" s="44">
         <f>(K95-J95)/6</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="N95" s="45">
+      <c r="N95" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q95" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" s="38" customFormat="1">
-      <c r="A96" s="38" t="b">
+      <c r="Q95" s="42" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" s="37" customFormat="1">
+      <c r="A96" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B96" s="38" t="s">
-        <v>854</v>
-      </c>
-      <c r="C96" s="38" t="s">
-        <v>852</v>
-      </c>
-      <c r="D96" s="38" t="s">
-        <v>852</v>
-      </c>
-      <c r="E96" s="38" t="s">
+      <c r="B96" s="37" t="s">
+        <v>809</v>
+      </c>
+      <c r="C96" s="37" t="s">
+        <v>807</v>
+      </c>
+      <c r="D96" s="37" t="s">
+        <v>807</v>
+      </c>
+      <c r="E96" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G96" s="39"/>
-      <c r="H96" s="39"/>
-    </row>
-    <row r="97" spans="1:17" s="43" customFormat="1">
-      <c r="B97" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D97" s="43" t="s">
-        <v>856</v>
-      </c>
-      <c r="E97" s="43" t="s">
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+    </row>
+    <row r="97" spans="1:17" s="42" customFormat="1">
+      <c r="B97" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D97" s="42" t="s">
+        <v>811</v>
+      </c>
+      <c r="E97" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="F97" s="43" t="s">
+      <c r="F97" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="H97" s="43">
+      <c r="H97" s="42">
         <v>30</v>
       </c>
-      <c r="I97" s="46"/>
-      <c r="J97" s="45">
+      <c r="I97" s="45"/>
+      <c r="J97" s="44">
         <v>-100</v>
       </c>
-      <c r="K97" s="45">
+      <c r="K97" s="44">
         <v>100</v>
       </c>
-      <c r="L97" s="45">
-        <v>0</v>
-      </c>
-      <c r="M97" s="45">
+      <c r="L97" s="44">
+        <v>0</v>
+      </c>
+      <c r="M97" s="44">
         <f>(K97-J97)/6</f>
         <v>33.333333333333336</v>
       </c>
-      <c r="N97" s="45">
+      <c r="N97" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q97" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="98" spans="1:17" s="38" customFormat="1">
-      <c r="A98" s="38" t="b">
+      <c r="Q97" s="42" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" s="37" customFormat="1">
+      <c r="A98" s="37" t="b">
         <v>1</v>
       </c>
-      <c r="B98" s="38" t="s">
+      <c r="B98" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="C98" s="38" t="s">
-        <v>860</v>
-      </c>
-      <c r="D98" s="38" t="s">
-        <v>860</v>
-      </c>
-      <c r="E98" s="38" t="s">
+      <c r="C98" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="D98" s="37" t="s">
+        <v>815</v>
+      </c>
+      <c r="E98" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="G98" s="39"/>
-      <c r="H98" s="39"/>
-    </row>
-    <row r="99" spans="1:17" s="43" customFormat="1">
-      <c r="B99" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D99" s="43" t="s">
-        <v>863</v>
-      </c>
-      <c r="E99" s="43" t="s">
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+    </row>
+    <row r="99" spans="1:17" s="42" customFormat="1">
+      <c r="B99" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="E99" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="F99" s="43" t="s">
+      <c r="F99" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G99" s="43" t="s">
-        <v>861</v>
-      </c>
-      <c r="H99" s="43">
+      <c r="G99" s="42" t="s">
+        <v>816</v>
+      </c>
+      <c r="H99" s="42">
         <v>1</v>
       </c>
-      <c r="I99" s="46"/>
-      <c r="J99" s="45">
+      <c r="I99" s="45"/>
+      <c r="J99" s="44">
         <v>-5</v>
       </c>
-      <c r="K99" s="45">
+      <c r="K99" s="44">
         <v>5</v>
       </c>
-      <c r="L99" s="45">
-        <v>0</v>
-      </c>
-      <c r="M99" s="45">
+      <c r="L99" s="44">
+        <v>0</v>
+      </c>
+      <c r="M99" s="44">
         <f>(K99-J99)/6</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N99" s="45">
+      <c r="N99" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q99" s="43" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="43" customFormat="1">
-      <c r="B100" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D100" s="43" t="s">
-        <v>864</v>
-      </c>
-      <c r="E100" s="43" t="s">
+      <c r="Q99" s="42" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="42" customFormat="1">
+      <c r="B100" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D100" s="42" t="s">
+        <v>819</v>
+      </c>
+      <c r="E100" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="F100" s="43" t="s">
+      <c r="F100" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G100" s="43" t="s">
-        <v>861</v>
-      </c>
-      <c r="H100" s="43">
+      <c r="G100" s="42" t="s">
+        <v>816</v>
+      </c>
+      <c r="H100" s="42">
         <v>-1</v>
       </c>
-      <c r="I100" s="46"/>
-      <c r="J100" s="45">
+      <c r="I100" s="45"/>
+      <c r="J100" s="44">
         <v>-5</v>
       </c>
-      <c r="K100" s="45">
+      <c r="K100" s="44">
         <v>5</v>
       </c>
-      <c r="L100" s="45">
-        <v>0</v>
-      </c>
-      <c r="M100" s="45">
+      <c r="L100" s="44">
+        <v>0</v>
+      </c>
+      <c r="M100" s="44">
         <f>(K100-J100)/6</f>
         <v>1.6666666666666667</v>
       </c>
-      <c r="N100" s="45">
+      <c r="N100" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q100" s="43" t="s">
-        <v>776</v>
+      <c r="Q100" s="42" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="101" spans="1:17">
@@ -9698,7 +9742,7 @@
         <v>21</v>
       </c>
       <c r="D101" s="31" t="s">
-        <v>862</v>
+        <v>817</v>
       </c>
       <c r="E101" s="31" t="s">
         <v>194</v>
@@ -9715,29 +9759,29 @@
       <c r="M101" s="3"/>
       <c r="N101" s="3"/>
     </row>
-    <row r="102" spans="1:17" s="49" customFormat="1">
-      <c r="A102" s="49" t="b">
+    <row r="102" spans="1:17" s="48" customFormat="1">
+      <c r="A102" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B102" s="49" t="s">
-        <v>841</v>
-      </c>
-      <c r="C102" s="49" t="s">
-        <v>840</v>
-      </c>
-      <c r="D102" s="49" t="s">
-        <v>840</v>
-      </c>
-      <c r="E102" s="49" t="s">
+      <c r="B102" s="48" t="s">
+        <v>796</v>
+      </c>
+      <c r="C102" s="48" t="s">
+        <v>795</v>
+      </c>
+      <c r="D102" s="48" t="s">
+        <v>795</v>
+      </c>
+      <c r="E102" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J102" s="50"/>
-      <c r="K102" s="51"/>
-      <c r="L102" s="51"/>
-      <c r="M102" s="51"/>
-      <c r="N102" s="51"/>
-      <c r="O102" s="51"/>
-      <c r="Q102" s="52"/>
+      <c r="J102" s="49"/>
+      <c r="K102" s="50"/>
+      <c r="L102" s="50"/>
+      <c r="M102" s="50"/>
+      <c r="N102" s="50"/>
+      <c r="O102" s="50"/>
+      <c r="Q102" s="51"/>
     </row>
     <row r="103" spans="1:17" s="30" customFormat="1">
       <c r="A103" s="18"/>
@@ -9745,16 +9789,16 @@
         <v>21</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>846</v>
+        <v>801</v>
       </c>
       <c r="E103" s="30" t="s">
-        <v>842</v>
+        <v>797</v>
       </c>
       <c r="F103" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G103" s="30" t="s">
-        <v>838</v>
+        <v>793</v>
       </c>
       <c r="H103" s="30">
         <v>1</v>
@@ -9766,16 +9810,16 @@
         <v>21</v>
       </c>
       <c r="D104" s="30" t="s">
-        <v>847</v>
+        <v>802</v>
       </c>
       <c r="E104" s="30" t="s">
-        <v>843</v>
+        <v>798</v>
       </c>
       <c r="F104" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G104" s="30" t="s">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="H104" s="30">
         <v>1</v>
@@ -9787,16 +9831,16 @@
         <v>21</v>
       </c>
       <c r="D105" s="30" t="s">
-        <v>848</v>
+        <v>803</v>
       </c>
       <c r="E105" s="30" t="s">
-        <v>844</v>
+        <v>799</v>
       </c>
       <c r="F105" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G105" s="30" t="s">
-        <v>838</v>
+        <v>793</v>
       </c>
       <c r="H105" s="30">
         <v>12</v>
@@ -9808,54 +9852,54 @@
         <v>21</v>
       </c>
       <c r="D106" s="30" t="s">
-        <v>849</v>
+        <v>804</v>
       </c>
       <c r="E106" s="30" t="s">
-        <v>845</v>
+        <v>800</v>
       </c>
       <c r="F106" s="30" t="s">
         <v>65</v>
       </c>
       <c r="G106" s="30" t="s">
-        <v>839</v>
+        <v>794</v>
       </c>
       <c r="H106" s="30">
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:17" s="49" customFormat="1">
-      <c r="A107" s="49" t="b">
+    <row r="107" spans="1:17" s="48" customFormat="1">
+      <c r="A107" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B107" s="49" t="s">
-        <v>803</v>
-      </c>
-      <c r="C107" s="49" t="s">
-        <v>802</v>
-      </c>
-      <c r="D107" s="49" t="s">
-        <v>802</v>
-      </c>
-      <c r="E107" s="49" t="s">
+      <c r="B107" s="48" t="s">
+        <v>781</v>
+      </c>
+      <c r="C107" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="D107" s="48" t="s">
+        <v>780</v>
+      </c>
+      <c r="E107" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J107" s="50"/>
-      <c r="K107" s="51"/>
-      <c r="L107" s="51"/>
-      <c r="M107" s="51"/>
-      <c r="N107" s="51"/>
-      <c r="O107" s="51"/>
-      <c r="Q107" s="52"/>
+      <c r="J107" s="49"/>
+      <c r="K107" s="50"/>
+      <c r="L107" s="50"/>
+      <c r="M107" s="50"/>
+      <c r="N107" s="50"/>
+      <c r="O107" s="50"/>
+      <c r="Q107" s="51"/>
     </row>
     <row r="108" spans="1:17">
       <c r="B108" s="31" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="31" t="s">
-        <v>870</v>
+        <v>825</v>
       </c>
       <c r="E108" s="31" t="s">
-        <v>869</v>
+        <v>824</v>
       </c>
       <c r="F108" s="31" t="s">
         <v>63</v>
@@ -9870,41 +9914,41 @@
       <c r="M108" s="3"/>
       <c r="N108" s="3"/>
       <c r="O108" s="3"/>
-      <c r="Q108" s="40"/>
-    </row>
-    <row r="109" spans="1:17" s="49" customFormat="1">
-      <c r="A109" s="49" t="b">
+      <c r="Q108" s="39"/>
+    </row>
+    <row r="109" spans="1:17" s="48" customFormat="1">
+      <c r="A109" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B109" s="49" t="s">
-        <v>831</v>
-      </c>
-      <c r="C109" s="49" t="s">
-        <v>830</v>
-      </c>
-      <c r="D109" s="49" t="s">
-        <v>830</v>
-      </c>
-      <c r="E109" s="49" t="s">
+      <c r="B109" s="48" t="s">
+        <v>786</v>
+      </c>
+      <c r="C109" s="48" t="s">
+        <v>785</v>
+      </c>
+      <c r="D109" s="48" t="s">
+        <v>785</v>
+      </c>
+      <c r="E109" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J109" s="50"/>
-      <c r="K109" s="51"/>
-      <c r="L109" s="51"/>
-      <c r="M109" s="51"/>
-      <c r="N109" s="51"/>
-      <c r="O109" s="51"/>
-      <c r="Q109" s="52"/>
+      <c r="J109" s="49"/>
+      <c r="K109" s="50"/>
+      <c r="L109" s="50"/>
+      <c r="M109" s="50"/>
+      <c r="N109" s="50"/>
+      <c r="O109" s="50"/>
+      <c r="Q109" s="51"/>
     </row>
     <row r="110" spans="1:17">
       <c r="B110" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="31" t="s">
-        <v>872</v>
+        <v>827</v>
       </c>
       <c r="E110" s="31" t="s">
-        <v>871</v>
+        <v>826</v>
       </c>
       <c r="F110" s="31" t="s">
         <v>63</v>
@@ -9919,7 +9963,7 @@
         <v>1</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>800</v>
+        <v>778</v>
       </c>
       <c r="C111" s="22" t="s">
         <v>286</v>
@@ -9952,43 +9996,43 @@
         <v>83</v>
       </c>
     </row>
-    <row r="113" spans="1:17" s="43" customFormat="1">
-      <c r="B113" s="43" t="s">
+    <row r="113" spans="1:17" s="42" customFormat="1">
+      <c r="B113" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D113" s="43" t="s">
-        <v>801</v>
-      </c>
-      <c r="E113" s="43" t="s">
+      <c r="D113" s="42" t="s">
+        <v>779</v>
+      </c>
+      <c r="E113" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="F113" s="43" t="s">
+      <c r="F113" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G113" s="43" t="s">
-        <v>791</v>
-      </c>
-      <c r="H113" s="43">
-        <v>0</v>
-      </c>
-      <c r="J113" s="43">
-        <v>0</v>
-      </c>
-      <c r="K113" s="43">
+      <c r="G113" s="42" t="s">
+        <v>769</v>
+      </c>
+      <c r="H113" s="42">
+        <v>0</v>
+      </c>
+      <c r="J113" s="42">
+        <v>0</v>
+      </c>
+      <c r="K113" s="42">
         <v>40</v>
       </c>
-      <c r="L113" s="43">
+      <c r="L113" s="42">
         <v>-1</v>
       </c>
-      <c r="M113" s="45">
+      <c r="M113" s="44">
         <f>(K113-J113)/6</f>
         <v>6.666666666666667</v>
       </c>
-      <c r="N113" s="45">
+      <c r="N113" s="44">
         <v>2.5</v>
       </c>
-      <c r="Q113" s="43" t="s">
-        <v>776</v>
+      <c r="Q113" s="42" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="30" customFormat="1">
@@ -9996,7 +10040,7 @@
         <v>21</v>
       </c>
       <c r="D114" s="30" t="s">
-        <v>792</v>
+        <v>770</v>
       </c>
       <c r="E114" s="30" t="s">
         <v>48</v>
@@ -10005,7 +10049,7 @@
         <v>64</v>
       </c>
       <c r="G114" s="30" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="H114" s="30">
         <v>0</v>
@@ -10016,7 +10060,7 @@
         <v>21</v>
       </c>
       <c r="D115" s="30" t="s">
-        <v>793</v>
+        <v>771</v>
       </c>
       <c r="E115" s="30" t="s">
         <v>50</v>
@@ -10025,7 +10069,7 @@
         <v>64</v>
       </c>
       <c r="G115" s="30" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="H115" s="30">
         <v>0</v>
@@ -10036,7 +10080,7 @@
         <v>21</v>
       </c>
       <c r="D116" s="30" t="s">
-        <v>794</v>
+        <v>772</v>
       </c>
       <c r="E116" s="30" t="s">
         <v>52</v>
@@ -10045,7 +10089,7 @@
         <v>65</v>
       </c>
       <c r="G116" s="30" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="H116" s="30">
         <v>0</v>
@@ -10056,7 +10100,7 @@
         <v>21</v>
       </c>
       <c r="D117" s="30" t="s">
-        <v>796</v>
+        <v>774</v>
       </c>
       <c r="E117" s="30" t="s">
         <v>54</v>
@@ -10073,7 +10117,7 @@
         <v>21</v>
       </c>
       <c r="D118" s="30" t="s">
-        <v>797</v>
+        <v>775</v>
       </c>
       <c r="E118" s="30" t="s">
         <v>56</v>
@@ -10082,7 +10126,7 @@
         <v>65</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="H118" s="30">
         <v>15</v>
@@ -10093,7 +10137,7 @@
         <v>21</v>
       </c>
       <c r="D119" s="30" t="s">
-        <v>798</v>
+        <v>776</v>
       </c>
       <c r="E119" s="30" t="s">
         <v>58</v>
@@ -10102,7 +10146,7 @@
         <v>64</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>791</v>
+        <v>769</v>
       </c>
       <c r="H119" s="30">
         <v>0</v>
@@ -10113,7 +10157,7 @@
         <v>21</v>
       </c>
       <c r="D120" s="30" t="s">
-        <v>799</v>
+        <v>777</v>
       </c>
       <c r="E120" s="30" t="s">
         <v>60</v>
@@ -10122,35 +10166,35 @@
         <v>65</v>
       </c>
       <c r="G120" s="30" t="s">
-        <v>795</v>
+        <v>773</v>
       </c>
       <c r="H120" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:17" s="49" customFormat="1">
-      <c r="A121" s="49" t="b">
+    <row r="121" spans="1:17" s="48" customFormat="1">
+      <c r="A121" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B121" s="49" t="s">
+      <c r="B121" s="48" t="s">
         <v>209</v>
       </c>
-      <c r="C121" s="49" t="s">
+      <c r="C121" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="D121" s="49" t="s">
+      <c r="D121" s="48" t="s">
         <v>210</v>
       </c>
-      <c r="E121" s="49" t="s">
+      <c r="E121" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J121" s="50"/>
-      <c r="K121" s="51"/>
-      <c r="L121" s="51"/>
-      <c r="M121" s="51"/>
-      <c r="N121" s="51"/>
-      <c r="O121" s="51"/>
-      <c r="Q121" s="52"/>
+      <c r="J121" s="49"/>
+      <c r="K121" s="50"/>
+      <c r="L121" s="50"/>
+      <c r="M121" s="50"/>
+      <c r="N121" s="50"/>
+      <c r="O121" s="50"/>
+      <c r="Q121" s="51"/>
     </row>
     <row r="122" spans="1:17">
       <c r="B122" s="30" t="s">
@@ -10160,48 +10204,48 @@
         <v>209</v>
       </c>
       <c r="E122" s="31" t="s">
-        <v>868</v>
+        <v>823</v>
       </c>
       <c r="F122" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H122" s="31" t="s">
-        <v>867</v>
+        <v>822</v>
       </c>
       <c r="I122" s="30" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" s="49" customFormat="1">
-      <c r="A123" s="49" t="b">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" s="48" customFormat="1">
+      <c r="A123" s="48" t="b">
         <v>1</v>
       </c>
-      <c r="B123" s="49" t="s">
+      <c r="B123" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="C123" s="49" t="s">
+      <c r="C123" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D123" s="49" t="s">
+      <c r="D123" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="E123" s="49" t="s">
+      <c r="E123" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="J123" s="50"/>
-      <c r="K123" s="51"/>
-      <c r="L123" s="51"/>
-      <c r="M123" s="51"/>
-      <c r="N123" s="51"/>
-      <c r="O123" s="51"/>
-      <c r="Q123" s="52"/>
+      <c r="J123" s="49"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="50"/>
+      <c r="M123" s="50"/>
+      <c r="N123" s="50"/>
+      <c r="O123" s="50"/>
+      <c r="Q123" s="51"/>
     </row>
     <row r="124" spans="1:17">
       <c r="B124" s="30" t="s">
         <v>21</v>
       </c>
       <c r="D124" s="31" t="s">
-        <v>834</v>
+        <v>789</v>
       </c>
       <c r="E124" s="31" t="s">
         <v>219</v>
@@ -10210,10 +10254,10 @@
         <v>62</v>
       </c>
       <c r="H124" s="31" t="s">
-        <v>873</v>
+        <v>828</v>
       </c>
       <c r="I124" s="30" t="s">
-        <v>874</v>
+        <v>829</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -10221,7 +10265,7 @@
         <v>21</v>
       </c>
       <c r="D125" s="31" t="s">
-        <v>835</v>
+        <v>790</v>
       </c>
       <c r="E125" s="31" t="s">
         <v>221</v>
@@ -10230,7 +10274,7 @@
         <v>64</v>
       </c>
       <c r="G125" s="31" t="s">
-        <v>836</v>
+        <v>791</v>
       </c>
       <c r="H125" s="31">
         <v>69</v>
@@ -10242,7 +10286,7 @@
         <v>21</v>
       </c>
       <c r="D126" s="31" t="s">
-        <v>837</v>
+        <v>792</v>
       </c>
       <c r="E126" s="31" t="s">
         <v>227</v>
@@ -10251,7 +10295,7 @@
         <v>64</v>
       </c>
       <c r="G126" s="31" t="s">
-        <v>836</v>
+        <v>791</v>
       </c>
       <c r="H126" s="31">
         <v>-148</v>
@@ -10601,914 +10645,965 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" sqref="A1:L33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="29.42578125" style="31" customWidth="1"/>
+    <col min="1" max="2" width="29.5" style="31" customWidth="1"/>
     <col min="3" max="3" width="71" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="31" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="31" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.42578125" style="31" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="31" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="31" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="31"/>
+    <col min="4" max="4" width="10.5" style="31" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.5" style="31" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" style="31" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="7" t="s">
+    <row r="1" spans="1:12" ht="18">
+      <c r="A1" s="55"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2" spans="1:12" s="8" customFormat="1" ht="15.75">
-      <c r="A2" s="8" t="s">
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="54"/>
+    </row>
+    <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
+      <c r="A2" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="58" t="s">
         <v>637</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="57" t="s">
         <v>460</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="57" t="s">
         <v>622</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="57" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="57" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="14" customFormat="1" ht="47.25">
-      <c r="A3" s="14" t="s">
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
+      <c r="A3" s="58" t="s">
         <v>628</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="58" t="s">
         <v>642</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="58" t="s">
         <v>631</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10" t="s">
+      <c r="D3" s="58"/>
+      <c r="E3" s="58" t="s">
         <v>629</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="58" t="s">
         <v>461</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="59" t="s">
         <v>619</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="58" t="s">
         <v>630</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="58" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="54" t="s">
         <v>644</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="54" t="s">
         <v>638</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="54" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="54" t="s">
         <v>468</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="30" t="b">
+      <c r="F4" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="30" t="b">
+      <c r="G4" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
+      <c r="H4" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="54" t="s">
         <v>645</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="54" t="s">
         <v>639</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="54" t="s">
         <v>635</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="54" t="s">
         <v>468</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30" t="b">
+      <c r="F5" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
-      <c r="L5" s="30"/>
+      <c r="H5" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="54" t="s">
         <v>646</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="54" t="s">
         <v>641</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="54" t="s">
         <v>632</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="54" t="s">
         <v>468</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="30" t="b">
+      <c r="F6" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="30" t="b">
+      <c r="G6" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
+      <c r="H6" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="54" t="s">
         <v>647</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="54" t="s">
         <v>640</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="54" t="s">
         <v>633</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="54" t="s">
         <v>468</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E7" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="30" t="b">
+      <c r="F7" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="30" t="b">
+      <c r="G7" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
+      <c r="H7" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="54" t="s">
+        <v>838</v>
+      </c>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54" t="s">
+        <v>839</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="54" t="s">
+        <v>840</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54" t="s">
+        <v>841</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="54" t="s">
+        <v>842</v>
+      </c>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54" t="s">
+        <v>843</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="54" t="s">
+        <v>844</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54" t="s">
+        <v>845</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="54" t="s">
+        <v>846</v>
+      </c>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54" t="s">
+        <v>847</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="54" t="s">
+        <v>848</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54" t="s">
+        <v>849</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="54" t="s">
+        <v>850</v>
+      </c>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54" t="s">
+        <v>851</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="54" t="s">
+        <v>852</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54" t="s">
+        <v>853</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="54" t="s">
+        <v>854</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54" t="s">
+        <v>855</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E16" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="54" t="s">
+        <v>856</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54" t="s">
+        <v>857</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E17" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="54" t="s">
+        <v>858</v>
+      </c>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54" t="s">
+        <v>859</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E18" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="54" t="s">
+        <v>860</v>
+      </c>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54" t="s">
+        <v>861</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="54" t="s">
+        <v>862</v>
+      </c>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54" t="s">
+        <v>863</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E20" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="54" t="s">
+        <v>864</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54" t="s">
+        <v>865</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="54" t="s">
+        <v>866</v>
+      </c>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54" t="s">
+        <v>867</v>
+      </c>
+      <c r="D22" s="54" t="s">
+        <v>868</v>
+      </c>
+      <c r="E22" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="54" t="s">
+        <v>869</v>
+      </c>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54" t="s">
+        <v>870</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>868</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="54" t="s">
+        <v>871</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54" t="s">
+        <v>872</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>868</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="54" t="s">
+        <v>873</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54" t="s">
+        <v>874</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>875</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="G25" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="54" t="s">
         <v>706</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30" t="s">
-        <v>807</v>
-      </c>
-      <c r="D8" s="30" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="54" t="s">
+        <v>876</v>
+      </c>
+      <c r="D26" s="54" t="s">
         <v>707</v>
       </c>
-      <c r="E8" s="30" t="s">
+      <c r="E26" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="30" t="b">
+      <c r="F26" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="G8" s="30" t="b">
+      <c r="G26" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="30" t="b">
+      <c r="H26" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="54" t="s">
+        <v>708</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54" t="s">
+        <v>877</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>709</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="30" t="s">
-        <v>708</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>709</v>
-      </c>
-      <c r="E9" s="30" t="s">
+      <c r="G27" s="54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="54" t="s">
+        <v>878</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54" t="s">
+        <v>879</v>
+      </c>
+      <c r="D28" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="E28" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="30" t="b">
+      <c r="F28" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="G9" s="30" t="b">
+      <c r="G28" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="30" t="b">
+      <c r="H28" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="30" t="s">
-        <v>710</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30" t="s">
-        <v>809</v>
-      </c>
-      <c r="D10" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E10" s="30" t="s">
+      <c r="I28" s="54">
+        <v>0</v>
+      </c>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="54" t="s">
+        <v>880</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54" t="s">
+        <v>881</v>
+      </c>
+      <c r="D29" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="E29" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="30" t="b">
+      <c r="F29" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="G10" s="30" t="b">
+      <c r="G29" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="30" t="b">
+      <c r="H29" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="30" t="s">
-        <v>711</v>
-      </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30" t="s">
-        <v>810</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E11" s="30" t="s">
+      <c r="I29" s="54">
+        <v>0</v>
+      </c>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="54" t="s">
+        <v>882</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54" t="s">
+        <v>883</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="E30" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="30" t="b">
+      <c r="F30" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="G11" s="30" t="b">
+      <c r="G30" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="30" t="b">
+      <c r="H30" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="30" t="s">
-        <v>712</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30" t="s">
-        <v>811</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E12" s="30" t="s">
+      <c r="I30" s="54">
+        <v>0</v>
+      </c>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="54" t="s">
+        <v>884</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54" t="s">
+        <v>885</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>769</v>
+      </c>
+      <c r="E31" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="30" t="b">
+      <c r="F31" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="G12" s="30" t="b">
+      <c r="G31" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="30" t="b">
+      <c r="H31" s="54" t="b">
         <v>1</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="30" t="s">
-        <v>713</v>
-      </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="D13" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E13" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G13" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="30" t="s">
-        <v>714</v>
-      </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="D14" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G14" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="30" t="s">
-        <v>715</v>
-      </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F15" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G15" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="30" t="s">
-        <v>716</v>
-      </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="30" t="s">
-        <v>717</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G17" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="30"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="30" t="s">
-        <v>718</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F18" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="30" t="s">
-        <v>719</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30" t="s">
-        <v>818</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E19" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="30"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="30" t="s">
-        <v>720</v>
-      </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>707</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="30"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="30" t="s">
-        <v>722</v>
-      </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30" t="s">
-        <v>820</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G21" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="30"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="30" t="s">
-        <v>721</v>
-      </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30" t="s">
-        <v>821</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G22" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H22" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="30" t="s">
-        <v>724</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30" t="s">
-        <v>822</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G23" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H23" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="30"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="30" t="s">
-        <v>725</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30" t="s">
-        <v>823</v>
-      </c>
-      <c r="D24" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F24" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="30"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="30" t="s">
-        <v>726</v>
-      </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F25" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G25" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="30"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="30" t="s">
-        <v>727</v>
-      </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30" t="s">
-        <v>825</v>
-      </c>
-      <c r="D26" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H26" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="30" t="s">
-        <v>728</v>
-      </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30" t="s">
-        <v>826</v>
-      </c>
-      <c r="D27" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G27" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H27" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="30" t="s">
-        <v>729</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30" t="s">
-        <v>827</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G28" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="30" t="s">
-        <v>730</v>
-      </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H29" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="30" t="s">
-        <v>731</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>723</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="G30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="H30" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
+      <c r="I31" s="54">
+        <v>0</v>
+      </c>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="30"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:12">
       <c r="A35" s="30"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:12">
       <c r="A36" s="30"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:12">
       <c r="A37" s="30"/>
       <c r="B37" s="30"/>
       <c r="C37" s="30"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:12">
       <c r="A38" s="30"/>
       <c r="B38" s="30"/>
       <c r="C38" s="30"/>
@@ -11533,19 +11628,19 @@
       <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75">
+    <row r="1" spans="1:9" ht="15">
       <c r="A1" s="17" t="b">
         <v>0</v>
       </c>
@@ -11564,7 +11659,7 @@
       <c r="H1" s="17"/>
       <c r="I1" s="17"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75">
+    <row r="2" spans="1:9" ht="15">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>21</v>
@@ -11585,7 +11680,7 @@
       <c r="H2" s="17"/>
       <c r="I2" s="17"/>
     </row>
-    <row r="3" spans="1:9" ht="15.75">
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>21</v>
@@ -11608,7 +11703,7 @@
       </c>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="15.75">
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>21</v>
@@ -11631,7 +11726,7 @@
       </c>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" spans="1:9" ht="15.75">
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" s="17"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
@@ -11654,7 +11749,7 @@
       </c>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" spans="1:9" ht="15.75">
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" s="17"/>
       <c r="B6" s="17" t="s">
         <v>21</v>
@@ -11677,7 +11772,7 @@
       </c>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" spans="1:9" ht="15.75">
+    <row r="7" spans="1:9" ht="15">
       <c r="A7" s="17"/>
       <c r="B7" s="17" t="s">
         <v>21</v>
@@ -11700,7 +11795,7 @@
       </c>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" spans="1:9" ht="15.75">
+    <row r="8" spans="1:9" ht="15">
       <c r="A8" s="17"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
@@ -11723,7 +11818,7 @@
       </c>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:9" ht="15.75">
+    <row r="9" spans="1:9" ht="15">
       <c r="A9" s="17"/>
       <c r="B9" s="17" t="s">
         <v>21</v>
@@ -11746,7 +11841,7 @@
       </c>
       <c r="I9" s="17"/>
     </row>
-    <row r="10" spans="1:9" ht="15.75">
+    <row r="10" spans="1:9" ht="15">
       <c r="A10" s="17"/>
       <c r="B10" s="17" t="s">
         <v>21</v>
@@ -11769,7 +11864,7 @@
       </c>
       <c r="I10" s="17"/>
     </row>
-    <row r="11" spans="1:9" ht="15.75">
+    <row r="11" spans="1:9" ht="15">
       <c r="A11" s="17" t="b">
         <v>0</v>
       </c>
@@ -11788,7 +11883,7 @@
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
     </row>
-    <row r="12" spans="1:9" ht="15.75">
+    <row r="12" spans="1:9" ht="15">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
         <v>21</v>
@@ -11809,7 +11904,7 @@
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75">
+    <row r="13" spans="1:9" ht="15">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
         <v>21</v>
@@ -11832,7 +11927,7 @@
       </c>
       <c r="I13" s="17"/>
     </row>
-    <row r="14" spans="1:9" ht="15.75">
+    <row r="14" spans="1:9" ht="15">
       <c r="A14" s="17"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
@@ -11855,7 +11950,7 @@
       </c>
       <c r="I14" s="17"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75">
+    <row r="15" spans="1:9" ht="15">
       <c r="A15" s="17"/>
       <c r="B15" s="17" t="s">
         <v>21</v>
@@ -11878,7 +11973,7 @@
       </c>
       <c r="I15" s="17"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="15">
       <c r="A16" s="17"/>
       <c r="B16" s="17" t="s">
         <v>21</v>
@@ -11901,7 +11996,7 @@
       </c>
       <c r="I16" s="17"/>
     </row>
-    <row r="17" spans="1:9" ht="15.75">
+    <row r="17" spans="1:9" ht="15">
       <c r="A17" s="17"/>
       <c r="B17" s="17" t="s">
         <v>21</v>
@@ -11924,7 +12019,7 @@
       </c>
       <c r="I17" s="17"/>
     </row>
-    <row r="18" spans="1:9" ht="15.75">
+    <row r="18" spans="1:9" ht="15">
       <c r="A18" s="17"/>
       <c r="B18" s="17" t="s">
         <v>21</v>
@@ -11947,7 +12042,7 @@
       </c>
       <c r="I18" s="17"/>
     </row>
-    <row r="19" spans="1:9" ht="15.75">
+    <row r="19" spans="1:9" ht="15">
       <c r="A19" s="17"/>
       <c r="B19" s="17" t="s">
         <v>21</v>
@@ -11970,7 +12065,7 @@
       </c>
       <c r="I19" s="17"/>
     </row>
-    <row r="20" spans="1:9" ht="15.75">
+    <row r="20" spans="1:9" ht="15">
       <c r="A20" s="17"/>
       <c r="B20" s="17" t="s">
         <v>21</v>
@@ -11993,7 +12088,7 @@
       </c>
       <c r="I20" s="17"/>
     </row>
-    <row r="21" spans="1:9" ht="15.75">
+    <row r="21" spans="1:9" ht="15">
       <c r="A21" s="17" t="b">
         <v>0</v>
       </c>
@@ -12012,7 +12107,7 @@
       <c r="H21" s="17"/>
       <c r="I21" s="17"/>
     </row>
-    <row r="22" spans="1:9" ht="15.75">
+    <row r="22" spans="1:9" ht="15">
       <c r="A22" s="17"/>
       <c r="B22" s="17" t="s">
         <v>21</v>
@@ -12035,7 +12130,7 @@
       </c>
       <c r="I22" s="17"/>
     </row>
-    <row r="23" spans="1:9" ht="15.75">
+    <row r="23" spans="1:9" ht="15">
       <c r="A23" s="17"/>
       <c r="B23" s="17" t="s">
         <v>21</v>
@@ -12058,7 +12153,7 @@
       </c>
       <c r="I23" s="17"/>
     </row>
-    <row r="24" spans="1:9" ht="15.75">
+    <row r="24" spans="1:9" ht="15">
       <c r="A24" s="17"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
@@ -12081,7 +12176,7 @@
       </c>
       <c r="I24" s="17"/>
     </row>
-    <row r="25" spans="1:9" ht="15.75">
+    <row r="25" spans="1:9" ht="15">
       <c r="A25" s="17"/>
       <c r="B25" s="17" t="s">
         <v>21</v>
@@ -12104,7 +12199,7 @@
       </c>
       <c r="I25" s="17"/>
     </row>
-    <row r="26" spans="1:9" ht="15.75">
+    <row r="26" spans="1:9" ht="15">
       <c r="A26" s="17"/>
       <c r="B26" s="17" t="s">
         <v>21</v>
@@ -12127,7 +12222,7 @@
       </c>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:9" ht="15.75">
+    <row r="27" spans="1:9" ht="15">
       <c r="A27" s="17"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
@@ -12150,7 +12245,7 @@
       </c>
       <c r="I27" s="17"/>
     </row>
-    <row r="28" spans="1:9" ht="15.75">
+    <row r="28" spans="1:9" ht="15">
       <c r="A28" s="17"/>
       <c r="B28" s="17" t="s">
         <v>21</v>
@@ -12173,7 +12268,7 @@
       </c>
       <c r="I28" s="17"/>
     </row>
-    <row r="29" spans="1:9" ht="15.75">
+    <row r="29" spans="1:9" ht="15">
       <c r="A29" s="17"/>
       <c r="B29" s="17" t="s">
         <v>21</v>
@@ -12196,7 +12291,7 @@
       </c>
       <c r="I29" s="17"/>
     </row>
-    <row r="30" spans="1:9" ht="15.75">
+    <row r="30" spans="1:9" ht="15">
       <c r="A30" s="17"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
@@ -12219,7 +12314,7 @@
       </c>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:9" ht="15.75">
+    <row r="31" spans="1:9" ht="15">
       <c r="A31" s="17" t="b">
         <v>0</v>
       </c>
@@ -12238,7 +12333,7 @@
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
     </row>
-    <row r="32" spans="1:9" ht="15.75">
+    <row r="32" spans="1:9" ht="15">
       <c r="A32" s="17"/>
       <c r="B32" s="17" t="s">
         <v>21</v>
@@ -12259,7 +12354,7 @@
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
     </row>
-    <row r="33" spans="1:9" ht="15.75">
+    <row r="33" spans="1:9" ht="15">
       <c r="A33" s="17"/>
       <c r="B33" s="17" t="s">
         <v>21</v>
@@ -12282,7 +12377,7 @@
       </c>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="1:9" ht="15.75">
+    <row r="34" spans="1:9" ht="15">
       <c r="A34" s="17"/>
       <c r="B34" s="17" t="s">
         <v>21</v>
@@ -12305,7 +12400,7 @@
       </c>
       <c r="I34" s="17"/>
     </row>
-    <row r="35" spans="1:9" ht="15.75">
+    <row r="35" spans="1:9" ht="15">
       <c r="A35" s="17"/>
       <c r="B35" s="17" t="s">
         <v>21</v>
@@ -12328,7 +12423,7 @@
       </c>
       <c r="I35" s="17"/>
     </row>
-    <row r="36" spans="1:9" ht="15.75">
+    <row r="36" spans="1:9" ht="15">
       <c r="A36" s="17"/>
       <c r="B36" s="17" t="s">
         <v>21</v>
@@ -12351,7 +12446,7 @@
       </c>
       <c r="I36" s="17"/>
     </row>
-    <row r="37" spans="1:9" ht="15.75">
+    <row r="37" spans="1:9" ht="15">
       <c r="A37" s="17"/>
       <c r="B37" s="17" t="s">
         <v>21</v>
@@ -12374,7 +12469,7 @@
       </c>
       <c r="I37" s="17"/>
     </row>
-    <row r="38" spans="1:9" ht="15.75">
+    <row r="38" spans="1:9" ht="15">
       <c r="A38" s="17"/>
       <c r="B38" s="17" t="s">
         <v>21</v>
@@ -12397,7 +12492,7 @@
       </c>
       <c r="I38" s="17"/>
     </row>
-    <row r="39" spans="1:9" ht="15.75">
+    <row r="39" spans="1:9" ht="15">
       <c r="A39" s="17"/>
       <c r="B39" s="17" t="s">
         <v>21</v>
@@ -12420,7 +12515,7 @@
       </c>
       <c r="I39" s="17"/>
     </row>
-    <row r="40" spans="1:9" ht="15.75">
+    <row r="40" spans="1:9" ht="15">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>21</v>
@@ -12443,7 +12538,7 @@
       </c>
       <c r="I40" s="17"/>
     </row>
-    <row r="41" spans="1:9" ht="15.75">
+    <row r="41" spans="1:9" ht="15">
       <c r="A41" s="17" t="b">
         <v>0</v>
       </c>
@@ -12462,7 +12557,7 @@
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
     </row>
-    <row r="42" spans="1:9" ht="15.75">
+    <row r="42" spans="1:9" ht="15">
       <c r="A42" s="17"/>
       <c r="B42" s="17" t="s">
         <v>21</v>
@@ -12483,7 +12578,7 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
     </row>
-    <row r="43" spans="1:9" ht="15.75">
+    <row r="43" spans="1:9" ht="15">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>21</v>
@@ -12506,7 +12601,7 @@
       </c>
       <c r="I43" s="17"/>
     </row>
-    <row r="44" spans="1:9" ht="15.75">
+    <row r="44" spans="1:9" ht="15">
       <c r="A44" s="17"/>
       <c r="B44" s="17" t="s">
         <v>21</v>
@@ -12529,7 +12624,7 @@
       </c>
       <c r="I44" s="17"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75">
+    <row r="45" spans="1:9" ht="15">
       <c r="A45" s="17"/>
       <c r="B45" s="17" t="s">
         <v>21</v>
@@ -12552,7 +12647,7 @@
       </c>
       <c r="I45" s="17"/>
     </row>
-    <row r="46" spans="1:9" ht="15.75">
+    <row r="46" spans="1:9" ht="15">
       <c r="A46" s="17"/>
       <c r="B46" s="17" t="s">
         <v>21</v>
@@ -12575,7 +12670,7 @@
       </c>
       <c r="I46" s="17"/>
     </row>
-    <row r="47" spans="1:9" ht="15.75">
+    <row r="47" spans="1:9" ht="15">
       <c r="A47" s="17"/>
       <c r="B47" s="17" t="s">
         <v>21</v>
@@ -12598,7 +12693,7 @@
       </c>
       <c r="I47" s="17"/>
     </row>
-    <row r="48" spans="1:9" ht="15.75">
+    <row r="48" spans="1:9" ht="15">
       <c r="A48" s="17"/>
       <c r="B48" s="17" t="s">
         <v>21</v>
@@ -12621,7 +12716,7 @@
       </c>
       <c r="I48" s="17"/>
     </row>
-    <row r="49" spans="1:9" ht="15.75">
+    <row r="49" spans="1:9" ht="15">
       <c r="A49" s="17"/>
       <c r="B49" s="17" t="s">
         <v>21</v>
@@ -12644,7 +12739,7 @@
       </c>
       <c r="I49" s="17"/>
     </row>
-    <row r="50" spans="1:9" ht="15.75">
+    <row r="50" spans="1:9" ht="15">
       <c r="A50" s="17"/>
       <c r="B50" s="17" t="s">
         <v>21</v>
@@ -12667,7 +12762,7 @@
       </c>
       <c r="I50" s="17"/>
     </row>
-    <row r="51" spans="1:9" ht="15.75">
+    <row r="51" spans="1:9" ht="15">
       <c r="A51" s="17" t="b">
         <v>0</v>
       </c>
@@ -12686,7 +12781,7 @@
       <c r="H51" s="17"/>
       <c r="I51" s="17"/>
     </row>
-    <row r="52" spans="1:9" ht="15.75">
+    <row r="52" spans="1:9" ht="15">
       <c r="A52" s="17"/>
       <c r="B52" s="17" t="s">
         <v>21</v>
@@ -12707,7 +12802,7 @@
       <c r="H52" s="17"/>
       <c r="I52" s="17"/>
     </row>
-    <row r="53" spans="1:9" ht="15.75">
+    <row r="53" spans="1:9" ht="15">
       <c r="A53" s="17"/>
       <c r="B53" s="17" t="s">
         <v>21</v>
@@ -12730,7 +12825,7 @@
       </c>
       <c r="I53" s="17"/>
     </row>
-    <row r="54" spans="1:9" ht="15.75">
+    <row r="54" spans="1:9" ht="15">
       <c r="A54" s="17"/>
       <c r="B54" s="17" t="s">
         <v>21</v>
@@ -12753,7 +12848,7 @@
       </c>
       <c r="I54" s="17"/>
     </row>
-    <row r="55" spans="1:9" ht="15.75">
+    <row r="55" spans="1:9" ht="15">
       <c r="A55" s="17"/>
       <c r="B55" s="17" t="s">
         <v>21</v>
@@ -12776,7 +12871,7 @@
       </c>
       <c r="I55" s="17"/>
     </row>
-    <row r="56" spans="1:9" ht="15.75">
+    <row r="56" spans="1:9" ht="15">
       <c r="A56" s="17"/>
       <c r="B56" s="17" t="s">
         <v>21</v>
@@ -12799,7 +12894,7 @@
       </c>
       <c r="I56" s="17"/>
     </row>
-    <row r="57" spans="1:9" ht="15.75">
+    <row r="57" spans="1:9" ht="15">
       <c r="A57" s="17"/>
       <c r="B57" s="17" t="s">
         <v>21</v>
@@ -12822,7 +12917,7 @@
       </c>
       <c r="I57" s="17"/>
     </row>
-    <row r="58" spans="1:9" ht="15.75">
+    <row r="58" spans="1:9" ht="15">
       <c r="A58" s="17"/>
       <c r="B58" s="17" t="s">
         <v>21</v>
@@ -12845,7 +12940,7 @@
       </c>
       <c r="I58" s="17"/>
     </row>
-    <row r="59" spans="1:9" ht="15.75">
+    <row r="59" spans="1:9" ht="15">
       <c r="A59" s="17"/>
       <c r="B59" s="17" t="s">
         <v>21</v>
@@ -12868,7 +12963,7 @@
       </c>
       <c r="I59" s="17"/>
     </row>
-    <row r="60" spans="1:9" ht="15.75">
+    <row r="60" spans="1:9" ht="15">
       <c r="A60" s="17"/>
       <c r="B60" s="17" t="s">
         <v>21</v>
@@ -12891,7 +12986,7 @@
       </c>
       <c r="I60" s="17"/>
     </row>
-    <row r="61" spans="1:9" ht="15.75">
+    <row r="61" spans="1:9" ht="15">
       <c r="A61" s="17" t="b">
         <v>0</v>
       </c>
@@ -12910,7 +13005,7 @@
       <c r="H61" s="17"/>
       <c r="I61" s="17"/>
     </row>
-    <row r="62" spans="1:9" ht="15.75">
+    <row r="62" spans="1:9" ht="15">
       <c r="A62" s="17"/>
       <c r="B62" s="17" t="s">
         <v>21</v>
@@ -12931,7 +13026,7 @@
       <c r="H62" s="17"/>
       <c r="I62" s="17"/>
     </row>
-    <row r="63" spans="1:9" ht="15.75">
+    <row r="63" spans="1:9" ht="15">
       <c r="A63" s="17"/>
       <c r="B63" s="17" t="s">
         <v>21</v>
@@ -12956,7 +13051,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75">
+    <row r="64" spans="1:9" ht="15">
       <c r="A64" s="17"/>
       <c r="B64" s="17" t="s">
         <v>21</v>
@@ -12979,7 +13074,7 @@
       </c>
       <c r="I64" s="17"/>
     </row>
-    <row r="65" spans="1:9" ht="15.75">
+    <row r="65" spans="1:9" ht="15">
       <c r="A65" s="17"/>
       <c r="B65" s="17" t="s">
         <v>21</v>
@@ -13002,7 +13097,7 @@
       </c>
       <c r="I65" s="17"/>
     </row>
-    <row r="66" spans="1:9" ht="15.75">
+    <row r="66" spans="1:9" ht="15">
       <c r="A66" s="17"/>
       <c r="B66" s="17" t="s">
         <v>21</v>
@@ -13025,7 +13120,7 @@
       </c>
       <c r="I66" s="17"/>
     </row>
-    <row r="67" spans="1:9" ht="15.75">
+    <row r="67" spans="1:9" ht="15">
       <c r="A67" s="17"/>
       <c r="B67" s="17" t="s">
         <v>21</v>
@@ -13048,7 +13143,7 @@
       </c>
       <c r="I67" s="17"/>
     </row>
-    <row r="68" spans="1:9" ht="15.75">
+    <row r="68" spans="1:9" ht="15">
       <c r="A68" s="17"/>
       <c r="B68" s="17" t="s">
         <v>21</v>
@@ -13071,7 +13166,7 @@
       </c>
       <c r="I68" s="17"/>
     </row>
-    <row r="69" spans="1:9" ht="15.75">
+    <row r="69" spans="1:9" ht="15">
       <c r="A69" s="17"/>
       <c r="B69" s="17" t="s">
         <v>21</v>
@@ -13094,7 +13189,7 @@
       </c>
       <c r="I69" s="17"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75">
+    <row r="70" spans="1:9" ht="15">
       <c r="A70" s="17"/>
       <c r="B70" s="17" t="s">
         <v>21</v>
@@ -13117,7 +13212,7 @@
       </c>
       <c r="I70" s="17"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75">
+    <row r="71" spans="1:9" ht="15">
       <c r="A71" s="17"/>
       <c r="B71" s="17" t="s">
         <v>21</v>
@@ -13140,7 +13235,7 @@
       </c>
       <c r="I71" s="17"/>
     </row>
-    <row r="72" spans="1:9" ht="15.75">
+    <row r="72" spans="1:9" ht="15">
       <c r="A72" s="17" t="b">
         <v>0</v>
       </c>
@@ -13159,7 +13254,7 @@
       <c r="H72" s="17"/>
       <c r="I72" s="17"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75">
+    <row r="73" spans="1:9" ht="15">
       <c r="A73" s="17"/>
       <c r="B73" s="17" t="s">
         <v>21</v>
@@ -13180,7 +13275,7 @@
       <c r="H73" s="17"/>
       <c r="I73" s="17"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75">
+    <row r="74" spans="1:9" ht="15">
       <c r="A74" s="17"/>
       <c r="B74" s="17" t="s">
         <v>21</v>
@@ -13203,7 +13298,7 @@
       </c>
       <c r="I74" s="17"/>
     </row>
-    <row r="75" spans="1:9" ht="15.75">
+    <row r="75" spans="1:9" ht="15">
       <c r="A75" s="17"/>
       <c r="B75" s="17" t="s">
         <v>21</v>
@@ -13228,7 +13323,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15.75">
+    <row r="76" spans="1:9" ht="15">
       <c r="A76" s="17"/>
       <c r="B76" s="17" t="s">
         <v>21</v>
@@ -13251,7 +13346,7 @@
       </c>
       <c r="I76" s="17"/>
     </row>
-    <row r="77" spans="1:9" ht="15.75">
+    <row r="77" spans="1:9" ht="15">
       <c r="A77" s="17"/>
       <c r="B77" s="17" t="s">
         <v>21</v>
@@ -13274,7 +13369,7 @@
       </c>
       <c r="I77" s="17"/>
     </row>
-    <row r="78" spans="1:9" ht="15.75">
+    <row r="78" spans="1:9" ht="15">
       <c r="A78" s="17"/>
       <c r="B78" s="17" t="s">
         <v>21</v>
@@ -13297,7 +13392,7 @@
       </c>
       <c r="I78" s="17"/>
     </row>
-    <row r="79" spans="1:9" ht="15.75">
+    <row r="79" spans="1:9" ht="15">
       <c r="A79" s="17"/>
       <c r="B79" s="17" t="s">
         <v>21</v>
@@ -13320,7 +13415,7 @@
       </c>
       <c r="I79" s="17"/>
     </row>
-    <row r="80" spans="1:9" ht="15.75">
+    <row r="80" spans="1:9" ht="15">
       <c r="A80" s="17"/>
       <c r="B80" s="17" t="s">
         <v>21</v>
@@ -13343,7 +13438,7 @@
       </c>
       <c r="I80" s="17"/>
     </row>
-    <row r="81" spans="1:9" ht="15.75">
+    <row r="81" spans="1:9" ht="15">
       <c r="A81" s="17"/>
       <c r="B81" s="17" t="s">
         <v>21</v>
@@ -13366,7 +13461,7 @@
       </c>
       <c r="I81" s="17"/>
     </row>
-    <row r="82" spans="1:9" ht="15.75">
+    <row r="82" spans="1:9" ht="15">
       <c r="A82" s="17"/>
       <c r="B82" s="17" t="s">
         <v>21</v>
@@ -13389,7 +13484,7 @@
       </c>
       <c r="I82" s="17"/>
     </row>
-    <row r="83" spans="1:9" ht="15.75">
+    <row r="83" spans="1:9" ht="15">
       <c r="A83" s="17"/>
       <c r="B83" s="17" t="s">
         <v>21</v>
@@ -13412,7 +13507,7 @@
       </c>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="1:9" ht="15.75">
+    <row r="84" spans="1:9" ht="15">
       <c r="A84" s="17"/>
       <c r="B84" s="17" t="s">
         <v>21</v>
@@ -13435,7 +13530,7 @@
       </c>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="1:9" ht="15.75">
+    <row r="85" spans="1:9" ht="15">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>21</v>
@@ -13458,7 +13553,7 @@
       </c>
       <c r="I85" s="17"/>
     </row>
-    <row r="86" spans="1:9" ht="15.75">
+    <row r="86" spans="1:9" ht="15">
       <c r="A86" s="17" t="b">
         <v>0</v>
       </c>
@@ -13477,7 +13572,7 @@
       <c r="H86" s="17"/>
       <c r="I86" s="17"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75">
+    <row r="87" spans="1:9" ht="15">
       <c r="A87" s="17"/>
       <c r="B87" s="17" t="s">
         <v>21</v>
@@ -13500,7 +13595,7 @@
       </c>
       <c r="I87" s="17"/>
     </row>
-    <row r="88" spans="1:9" ht="15.75">
+    <row r="88" spans="1:9" ht="15">
       <c r="A88" s="17"/>
       <c r="B88" s="17" t="s">
         <v>21</v>
@@ -13523,7 +13618,7 @@
       </c>
       <c r="I88" s="17"/>
     </row>
-    <row r="89" spans="1:9" ht="15.75">
+    <row r="89" spans="1:9" ht="15">
       <c r="A89" s="17"/>
       <c r="B89" s="17" t="s">
         <v>21</v>
@@ -13546,7 +13641,7 @@
       </c>
       <c r="I89" s="17"/>
     </row>
-    <row r="90" spans="1:9" ht="15.75">
+    <row r="90" spans="1:9" ht="15">
       <c r="A90" s="17"/>
       <c r="B90" s="17" t="s">
         <v>21</v>
@@ -13569,7 +13664,7 @@
       </c>
       <c r="I90" s="17"/>
     </row>
-    <row r="91" spans="1:9" ht="15.75">
+    <row r="91" spans="1:9" ht="15">
       <c r="A91" s="17"/>
       <c r="B91" s="17" t="s">
         <v>21</v>
@@ -13592,7 +13687,7 @@
       </c>
       <c r="I91" s="17"/>
     </row>
-    <row r="92" spans="1:9" ht="15.75">
+    <row r="92" spans="1:9" ht="15">
       <c r="A92" s="17"/>
       <c r="B92" s="17" t="s">
         <v>21</v>
@@ -13615,7 +13710,7 @@
       </c>
       <c r="I92" s="17"/>
     </row>
-    <row r="93" spans="1:9" ht="15.75">
+    <row r="93" spans="1:9" ht="15">
       <c r="A93" s="17"/>
       <c r="B93" s="17" t="s">
         <v>21</v>
@@ -13638,7 +13733,7 @@
       </c>
       <c r="I93" s="17"/>
     </row>
-    <row r="94" spans="1:9" ht="15.75">
+    <row r="94" spans="1:9" ht="15">
       <c r="A94" s="17"/>
       <c r="B94" s="17" t="s">
         <v>21</v>
@@ -13661,7 +13756,7 @@
       </c>
       <c r="I94" s="17"/>
     </row>
-    <row r="95" spans="1:9" ht="15.75">
+    <row r="95" spans="1:9" ht="15">
       <c r="A95" s="17"/>
       <c r="B95" s="17" t="s">
         <v>21</v>
@@ -13684,7 +13779,7 @@
       </c>
       <c r="I95" s="17"/>
     </row>
-    <row r="96" spans="1:9" ht="15.75">
+    <row r="96" spans="1:9" ht="15">
       <c r="A96" s="17"/>
       <c r="B96" s="17" t="s">
         <v>21</v>
@@ -13707,7 +13802,7 @@
       </c>
       <c r="I96" s="17"/>
     </row>
-    <row r="97" spans="1:9" ht="15.75">
+    <row r="97" spans="1:9" ht="15">
       <c r="A97" s="17" t="b">
         <v>0</v>
       </c>
@@ -13726,7 +13821,7 @@
       <c r="H97" s="17"/>
       <c r="I97" s="17"/>
     </row>
-    <row r="98" spans="1:9" ht="15.75">
+    <row r="98" spans="1:9" ht="15">
       <c r="A98" s="17"/>
       <c r="B98" s="17" t="s">
         <v>21</v>
@@ -13751,7 +13846,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="15.75">
+    <row r="99" spans="1:9" ht="15">
       <c r="A99" s="17" t="b">
         <v>0</v>
       </c>
@@ -13770,7 +13865,7 @@
       <c r="H99" s="17"/>
       <c r="I99" s="17"/>
     </row>
-    <row r="100" spans="1:9" ht="15.75">
+    <row r="100" spans="1:9" ht="15">
       <c r="A100" s="17"/>
       <c r="B100" s="17" t="s">
         <v>21</v>
@@ -13791,7 +13886,7 @@
       <c r="H100" s="17"/>
       <c r="I100" s="17"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75">
+    <row r="101" spans="1:9" ht="15">
       <c r="A101" s="17"/>
       <c r="B101" s="17" t="s">
         <v>21</v>
@@ -13816,7 +13911,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="15.75">
+    <row r="102" spans="1:9" ht="15">
       <c r="A102" s="17" t="b">
         <v>0</v>
       </c>
@@ -13835,7 +13930,7 @@
       <c r="H102" s="17"/>
       <c r="I102" s="17"/>
     </row>
-    <row r="103" spans="1:9" ht="15.75">
+    <row r="103" spans="1:9" ht="15">
       <c r="A103" s="17"/>
       <c r="B103" s="17" t="s">
         <v>21</v>
@@ -13858,7 +13953,7 @@
       </c>
       <c r="I103" s="17"/>
     </row>
-    <row r="104" spans="1:9" ht="15.75">
+    <row r="104" spans="1:9" ht="15">
       <c r="A104" s="17"/>
       <c r="B104" s="17" t="s">
         <v>21</v>
@@ -13883,7 +13978,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="15.75">
+    <row r="105" spans="1:9" ht="15">
       <c r="A105" s="17"/>
       <c r="B105" s="17" t="s">
         <v>21</v>
@@ -13906,7 +14001,7 @@
       </c>
       <c r="I105" s="17"/>
     </row>
-    <row r="106" spans="1:9" ht="15.75">
+    <row r="106" spans="1:9" ht="15">
       <c r="A106" s="17"/>
       <c r="B106" s="17" t="s">
         <v>21</v>
@@ -13927,7 +14022,7 @@
       <c r="H106" s="17"/>
       <c r="I106" s="17"/>
     </row>
-    <row r="107" spans="1:9" ht="15.75">
+    <row r="107" spans="1:9" ht="15">
       <c r="A107" s="17" t="b">
         <v>0</v>
       </c>
@@ -13946,7 +14041,7 @@
       <c r="H107" s="17"/>
       <c r="I107" s="17"/>
     </row>
-    <row r="108" spans="1:9" ht="15.75">
+    <row r="108" spans="1:9" ht="15">
       <c r="A108" s="17"/>
       <c r="B108" s="17" t="s">
         <v>21</v>
@@ -13971,7 +14066,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="15.75">
+    <row r="109" spans="1:9" ht="15">
       <c r="A109" s="17"/>
       <c r="B109" s="17" t="s">
         <v>21</v>
@@ -13994,7 +14089,7 @@
       </c>
       <c r="I109" s="17"/>
     </row>
-    <row r="110" spans="1:9" ht="15.75">
+    <row r="110" spans="1:9" ht="15">
       <c r="A110" s="17"/>
       <c r="B110" s="17" t="s">
         <v>21</v>
@@ -14017,7 +14112,7 @@
       </c>
       <c r="I110" s="17"/>
     </row>
-    <row r="111" spans="1:9" ht="15.75">
+    <row r="111" spans="1:9" ht="15">
       <c r="A111" s="17"/>
       <c r="B111" s="17" t="s">
         <v>21</v>
@@ -14040,7 +14135,7 @@
       </c>
       <c r="I111" s="17"/>
     </row>
-    <row r="112" spans="1:9" ht="15.75">
+    <row r="112" spans="1:9" ht="15">
       <c r="A112" s="17"/>
       <c r="B112" s="17" t="s">
         <v>21</v>
@@ -14063,7 +14158,7 @@
       </c>
       <c r="I112" s="17"/>
     </row>
-    <row r="113" spans="1:9" ht="15.75">
+    <row r="113" spans="1:9" ht="15">
       <c r="A113" s="17"/>
       <c r="B113" s="17" t="s">
         <v>21</v>
@@ -14086,7 +14181,7 @@
       </c>
       <c r="I113" s="17"/>
     </row>
-    <row r="114" spans="1:9" ht="15.75">
+    <row r="114" spans="1:9" ht="15">
       <c r="A114" s="17"/>
       <c r="B114" s="17" t="s">
         <v>21</v>
@@ -14109,7 +14204,7 @@
       </c>
       <c r="I114" s="17"/>
     </row>
-    <row r="115" spans="1:9" ht="15.75">
+    <row r="115" spans="1:9" ht="15">
       <c r="A115" s="17" t="b">
         <v>0</v>
       </c>
@@ -14128,7 +14223,7 @@
       <c r="H115" s="17"/>
       <c r="I115" s="17"/>
     </row>
-    <row r="116" spans="1:9" ht="15.75">
+    <row r="116" spans="1:9" ht="15">
       <c r="A116" s="17"/>
       <c r="B116" s="17" t="s">
         <v>21</v>
@@ -14151,7 +14246,7 @@
       </c>
       <c r="I116" s="17"/>
     </row>
-    <row r="117" spans="1:9" ht="15.75">
+    <row r="117" spans="1:9" ht="15">
       <c r="A117" s="17"/>
       <c r="B117" s="17" t="s">
         <v>21</v>
@@ -14174,7 +14269,7 @@
       </c>
       <c r="I117" s="17"/>
     </row>
-    <row r="118" spans="1:9" ht="15.75">
+    <row r="118" spans="1:9" ht="15">
       <c r="A118" s="17"/>
       <c r="B118" s="17" t="s">
         <v>21</v>
@@ -14197,7 +14292,7 @@
       </c>
       <c r="I118" s="17"/>
     </row>
-    <row r="119" spans="1:9" ht="15.75">
+    <row r="119" spans="1:9" ht="15">
       <c r="A119" s="17" t="b">
         <v>0</v>
       </c>
@@ -14216,7 +14311,7 @@
       <c r="H119" s="17"/>
       <c r="I119" s="17"/>
     </row>
-    <row r="120" spans="1:9" ht="15.75">
+    <row r="120" spans="1:9" ht="15">
       <c r="A120" s="17"/>
       <c r="B120" s="17" t="s">
         <v>21</v>
@@ -14239,7 +14334,7 @@
       </c>
       <c r="I120" s="17"/>
     </row>
-    <row r="121" spans="1:9" ht="15.75">
+    <row r="121" spans="1:9" ht="15">
       <c r="A121" s="17"/>
       <c r="B121" s="17" t="s">
         <v>21</v>
@@ -14262,7 +14357,7 @@
       </c>
       <c r="I121" s="17"/>
     </row>
-    <row r="122" spans="1:9" ht="15.75">
+    <row r="122" spans="1:9" ht="15">
       <c r="A122" s="17"/>
       <c r="B122" s="17" t="s">
         <v>21</v>
@@ -14285,7 +14380,7 @@
       </c>
       <c r="I122" s="17"/>
     </row>
-    <row r="123" spans="1:9" ht="15.75">
+    <row r="123" spans="1:9" ht="15">
       <c r="A123" s="17"/>
       <c r="B123" s="17" t="s">
         <v>21</v>
@@ -14308,7 +14403,7 @@
       </c>
       <c r="I123" s="17"/>
     </row>
-    <row r="124" spans="1:9" ht="15.75">
+    <row r="124" spans="1:9" ht="15">
       <c r="A124" s="17"/>
       <c r="B124" s="17" t="s">
         <v>21</v>
@@ -14331,7 +14426,7 @@
       </c>
       <c r="I124" s="17"/>
     </row>
-    <row r="125" spans="1:9" ht="15.75">
+    <row r="125" spans="1:9" ht="15">
       <c r="A125" s="17"/>
       <c r="B125" s="17" t="s">
         <v>21</v>
@@ -14354,7 +14449,7 @@
       </c>
       <c r="I125" s="17"/>
     </row>
-    <row r="126" spans="1:9" ht="15.75">
+    <row r="126" spans="1:9" ht="15">
       <c r="A126" s="17" t="b">
         <v>0</v>
       </c>
@@ -14373,7 +14468,7 @@
       <c r="H126" s="17"/>
       <c r="I126" s="17"/>
     </row>
-    <row r="127" spans="1:9" ht="15.75">
+    <row r="127" spans="1:9" ht="15">
       <c r="A127" s="17"/>
       <c r="B127" s="17" t="s">
         <v>21</v>
@@ -14398,7 +14493,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="15.75">
+    <row r="128" spans="1:9" ht="15">
       <c r="A128" s="17"/>
       <c r="B128" s="17" t="s">
         <v>21</v>
@@ -14421,7 +14516,7 @@
       </c>
       <c r="I128" s="17"/>
     </row>
-    <row r="129" spans="1:9" ht="15.75">
+    <row r="129" spans="1:9" ht="15">
       <c r="A129" s="17"/>
       <c r="B129" s="17" t="s">
         <v>21</v>
@@ -14444,7 +14539,7 @@
       </c>
       <c r="I129" s="17"/>
     </row>
-    <row r="130" spans="1:9" ht="15.75">
+    <row r="130" spans="1:9" ht="15">
       <c r="A130" s="17"/>
       <c r="B130" s="17" t="s">
         <v>21</v>
@@ -14467,7 +14562,7 @@
       </c>
       <c r="I130" s="17"/>
     </row>
-    <row r="131" spans="1:9" ht="15.75">
+    <row r="131" spans="1:9" ht="15">
       <c r="A131" s="17"/>
       <c r="B131" s="17" t="s">
         <v>21</v>
@@ -14490,7 +14585,7 @@
       </c>
       <c r="I131" s="17"/>
     </row>
-    <row r="132" spans="1:9" ht="15.75">
+    <row r="132" spans="1:9" ht="15">
       <c r="A132" s="17"/>
       <c r="B132" s="17" t="s">
         <v>21</v>
@@ -14513,7 +14608,7 @@
       </c>
       <c r="I132" s="17"/>
     </row>
-    <row r="133" spans="1:9" ht="15.75">
+    <row r="133" spans="1:9" ht="15">
       <c r="A133" s="17"/>
       <c r="B133" s="17" t="s">
         <v>21</v>
@@ -14536,7 +14631,7 @@
       </c>
       <c r="I133" s="17"/>
     </row>
-    <row r="134" spans="1:9" ht="15.75">
+    <row r="134" spans="1:9" ht="15">
       <c r="A134" s="17"/>
       <c r="B134" s="17" t="s">
         <v>21</v>
@@ -14559,7 +14654,7 @@
       </c>
       <c r="I134" s="17"/>
     </row>
-    <row r="135" spans="1:9" ht="15.75">
+    <row r="135" spans="1:9" ht="15">
       <c r="A135" s="17"/>
       <c r="B135" s="17" t="s">
         <v>21</v>
@@ -14582,7 +14677,7 @@
       </c>
       <c r="I135" s="17"/>
     </row>
-    <row r="136" spans="1:9" ht="15.75">
+    <row r="136" spans="1:9" ht="15">
       <c r="A136" s="17" t="b">
         <v>0</v>
       </c>
@@ -14601,7 +14696,7 @@
       <c r="H136" s="17"/>
       <c r="I136" s="17"/>
     </row>
-    <row r="137" spans="1:9" ht="15.75">
+    <row r="137" spans="1:9" ht="15">
       <c r="A137" s="17"/>
       <c r="B137" s="17" t="s">
         <v>21</v>
@@ -14626,7 +14721,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="15.75">
+    <row r="138" spans="1:9" ht="15">
       <c r="A138" s="17"/>
       <c r="B138" s="17" t="s">
         <v>21</v>
@@ -14647,7 +14742,7 @@
       <c r="H138" s="17"/>
       <c r="I138" s="17"/>
     </row>
-    <row r="139" spans="1:9" ht="15.75">
+    <row r="139" spans="1:9" ht="15">
       <c r="A139" s="17"/>
       <c r="B139" s="17" t="s">
         <v>21</v>
@@ -14670,7 +14765,7 @@
       </c>
       <c r="I139" s="17"/>
     </row>
-    <row r="140" spans="1:9" ht="15.75">
+    <row r="140" spans="1:9" ht="15">
       <c r="A140" s="17"/>
       <c r="B140" s="17" t="s">
         <v>21</v>
@@ -14693,7 +14788,7 @@
       </c>
       <c r="I140" s="17"/>
     </row>
-    <row r="141" spans="1:9" ht="15.75">
+    <row r="141" spans="1:9" ht="15">
       <c r="A141" s="17"/>
       <c r="B141" s="17" t="s">
         <v>21</v>
@@ -14716,7 +14811,7 @@
       </c>
       <c r="I141" s="17"/>
     </row>
-    <row r="142" spans="1:9" ht="15.75">
+    <row r="142" spans="1:9" ht="15">
       <c r="A142" s="17"/>
       <c r="B142" s="17" t="s">
         <v>21</v>
@@ -14739,7 +14834,7 @@
       </c>
       <c r="I142" s="17"/>
     </row>
-    <row r="143" spans="1:9" ht="15.75">
+    <row r="143" spans="1:9" ht="15">
       <c r="A143" s="17"/>
       <c r="B143" s="17" t="s">
         <v>21</v>
@@ -14762,7 +14857,7 @@
       </c>
       <c r="I143" s="17"/>
     </row>
-    <row r="144" spans="1:9" ht="15.75">
+    <row r="144" spans="1:9" ht="15">
       <c r="A144" s="17"/>
       <c r="B144" s="17" t="s">
         <v>21</v>
@@ -14785,7 +14880,7 @@
       </c>
       <c r="I144" s="17"/>
     </row>
-    <row r="145" spans="1:9" ht="15.75">
+    <row r="145" spans="1:9" ht="15">
       <c r="A145" s="17"/>
       <c r="B145" s="17" t="s">
         <v>21</v>
@@ -14808,7 +14903,7 @@
       </c>
       <c r="I145" s="17"/>
     </row>
-    <row r="146" spans="1:9" ht="15.75">
+    <row r="146" spans="1:9" ht="15">
       <c r="A146" s="17"/>
       <c r="B146" s="17" t="s">
         <v>21</v>
@@ -14831,7 +14926,7 @@
       </c>
       <c r="I146" s="17"/>
     </row>
-    <row r="147" spans="1:9" ht="15.75">
+    <row r="147" spans="1:9" ht="15">
       <c r="A147" s="17"/>
       <c r="B147" s="17" t="s">
         <v>21</v>
@@ -14854,7 +14949,7 @@
       </c>
       <c r="I147" s="17"/>
     </row>
-    <row r="148" spans="1:9" ht="15.75">
+    <row r="148" spans="1:9" ht="15">
       <c r="A148" s="17"/>
       <c r="B148" s="17" t="s">
         <v>21</v>
@@ -14877,7 +14972,7 @@
       </c>
       <c r="I148" s="17"/>
     </row>
-    <row r="149" spans="1:9" ht="15.75">
+    <row r="149" spans="1:9" ht="15">
       <c r="A149" s="17"/>
       <c r="B149" s="17" t="s">
         <v>21</v>
@@ -14900,7 +14995,7 @@
       </c>
       <c r="I149" s="17"/>
     </row>
-    <row r="150" spans="1:9" ht="15.75">
+    <row r="150" spans="1:9" ht="15">
       <c r="A150" s="17"/>
       <c r="B150" s="17" t="s">
         <v>21</v>
@@ -14923,7 +15018,7 @@
       </c>
       <c r="I150" s="17"/>
     </row>
-    <row r="151" spans="1:9" ht="15.75">
+    <row r="151" spans="1:9" ht="15">
       <c r="A151" s="17" t="b">
         <v>0</v>
       </c>
@@ -14942,7 +15037,7 @@
       <c r="H151" s="17"/>
       <c r="I151" s="17"/>
     </row>
-    <row r="152" spans="1:9" ht="15.75">
+    <row r="152" spans="1:9" ht="15">
       <c r="A152" s="17"/>
       <c r="B152" s="17" t="s">
         <v>21</v>
@@ -14965,7 +15060,7 @@
       </c>
       <c r="I152" s="17"/>
     </row>
-    <row r="153" spans="1:9" ht="15.75">
+    <row r="153" spans="1:9" ht="15">
       <c r="A153" s="17" t="b">
         <v>0</v>
       </c>
@@ -14984,7 +15079,7 @@
       <c r="H153" s="17"/>
       <c r="I153" s="17"/>
     </row>
-    <row r="154" spans="1:9" ht="15.75">
+    <row r="154" spans="1:9" ht="15">
       <c r="A154" s="17"/>
       <c r="B154" s="17" t="s">
         <v>21</v>
@@ -15007,7 +15102,7 @@
       </c>
       <c r="I154" s="17"/>
     </row>
-    <row r="155" spans="1:9" ht="15.75">
+    <row r="155" spans="1:9" ht="15">
       <c r="A155" s="17"/>
       <c r="B155" s="17" t="s">
         <v>21</v>
@@ -15030,7 +15125,7 @@
       </c>
       <c r="I155" s="17"/>
     </row>
-    <row r="156" spans="1:9" ht="15.75">
+    <row r="156" spans="1:9" ht="15">
       <c r="A156" s="17" t="b">
         <v>0</v>
       </c>
@@ -15049,7 +15144,7 @@
       <c r="H156" s="17"/>
       <c r="I156" s="17"/>
     </row>
-    <row r="157" spans="1:9" ht="15.75">
+    <row r="157" spans="1:9" ht="15">
       <c r="A157" s="17"/>
       <c r="B157" s="17" t="s">
         <v>21</v>
@@ -15074,7 +15169,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="15.75">
+    <row r="158" spans="1:9" ht="15">
       <c r="A158" s="17"/>
       <c r="B158" s="17" t="s">
         <v>21</v>
@@ -15097,7 +15192,7 @@
       </c>
       <c r="I158" s="17"/>
     </row>
-    <row r="159" spans="1:9" ht="15.75">
+    <row r="159" spans="1:9" ht="15">
       <c r="A159" s="17"/>
       <c r="B159" s="17" t="s">
         <v>21</v>
@@ -15120,7 +15215,7 @@
       </c>
       <c r="I159" s="17"/>
     </row>
-    <row r="160" spans="1:9" ht="15.75">
+    <row r="160" spans="1:9" ht="15">
       <c r="A160" s="17"/>
       <c r="B160" s="17" t="s">
         <v>21</v>
@@ -15143,7 +15238,7 @@
       </c>
       <c r="I160" s="17"/>
     </row>
-    <row r="161" spans="1:9" ht="15.75">
+    <row r="161" spans="1:9" ht="15">
       <c r="A161" s="17"/>
       <c r="B161" s="17" t="s">
         <v>21</v>
@@ -15166,7 +15261,7 @@
       </c>
       <c r="I161" s="17"/>
     </row>
-    <row r="162" spans="1:9" ht="15.75">
+    <row r="162" spans="1:9" ht="15">
       <c r="A162" s="17"/>
       <c r="B162" s="17" t="s">
         <v>21</v>
@@ -15189,7 +15284,7 @@
       </c>
       <c r="I162" s="17"/>
     </row>
-    <row r="163" spans="1:9" ht="15.75">
+    <row r="163" spans="1:9" ht="15">
       <c r="A163" s="17"/>
       <c r="B163" s="17" t="s">
         <v>21</v>
@@ -15212,7 +15307,7 @@
       </c>
       <c r="I163" s="17"/>
     </row>
-    <row r="164" spans="1:9" ht="15.75">
+    <row r="164" spans="1:9" ht="15">
       <c r="A164" s="17"/>
       <c r="B164" s="17" t="s">
         <v>21</v>
@@ -15235,7 +15330,7 @@
       </c>
       <c r="I164" s="17"/>
     </row>
-    <row r="165" spans="1:9" ht="15.75">
+    <row r="165" spans="1:9" ht="15">
       <c r="A165" s="17"/>
       <c r="B165" s="17" t="s">
         <v>21</v>
@@ -15258,7 +15353,7 @@
       </c>
       <c r="I165" s="17"/>
     </row>
-    <row r="166" spans="1:9" ht="15.75">
+    <row r="166" spans="1:9" ht="15">
       <c r="A166" s="17"/>
       <c r="B166" s="17" t="s">
         <v>21</v>
@@ -15281,7 +15376,7 @@
       </c>
       <c r="I166" s="17"/>
     </row>
-    <row r="167" spans="1:9" ht="15.75">
+    <row r="167" spans="1:9" ht="15">
       <c r="A167" s="17" t="b">
         <v>0</v>
       </c>
@@ -15300,7 +15395,7 @@
       <c r="H167" s="17"/>
       <c r="I167" s="17"/>
     </row>
-    <row r="168" spans="1:9" ht="15.75">
+    <row r="168" spans="1:9" ht="15">
       <c r="A168" s="17"/>
       <c r="B168" s="17" t="s">
         <v>21</v>
@@ -15325,7 +15420,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="15.75">
+    <row r="169" spans="1:9" ht="15">
       <c r="A169" s="17"/>
       <c r="B169" s="17" t="s">
         <v>21</v>
@@ -15348,7 +15443,7 @@
       </c>
       <c r="I169" s="17"/>
     </row>
-    <row r="170" spans="1:9" ht="15.75">
+    <row r="170" spans="1:9" ht="15">
       <c r="A170" s="17"/>
       <c r="B170" s="17" t="s">
         <v>21</v>
@@ -15371,7 +15466,7 @@
       </c>
       <c r="I170" s="17"/>
     </row>
-    <row r="171" spans="1:9" ht="15.75">
+    <row r="171" spans="1:9" ht="15">
       <c r="A171" s="17"/>
       <c r="B171" s="17" t="s">
         <v>21</v>
@@ -15394,7 +15489,7 @@
       </c>
       <c r="I171" s="17"/>
     </row>
-    <row r="172" spans="1:9" ht="15.75">
+    <row r="172" spans="1:9" ht="15">
       <c r="A172" s="17"/>
       <c r="B172" s="17" t="s">
         <v>21</v>
@@ -15417,7 +15512,7 @@
       </c>
       <c r="I172" s="17"/>
     </row>
-    <row r="173" spans="1:9" ht="15.75">
+    <row r="173" spans="1:9" ht="15">
       <c r="A173" s="17"/>
       <c r="B173" s="17" t="s">
         <v>21</v>
@@ -15440,7 +15535,7 @@
       </c>
       <c r="I173" s="17"/>
     </row>
-    <row r="174" spans="1:9" ht="15.75">
+    <row r="174" spans="1:9" ht="15">
       <c r="A174" s="17"/>
       <c r="B174" s="17" t="s">
         <v>21</v>
@@ -15463,7 +15558,7 @@
       </c>
       <c r="I174" s="17"/>
     </row>
-    <row r="175" spans="1:9" ht="15.75">
+    <row r="175" spans="1:9" ht="15">
       <c r="A175" s="17"/>
       <c r="B175" s="17" t="s">
         <v>21</v>
@@ -15486,7 +15581,7 @@
       </c>
       <c r="I175" s="17"/>
     </row>
-    <row r="176" spans="1:9" ht="15.75">
+    <row r="176" spans="1:9" ht="15">
       <c r="A176" s="17"/>
       <c r="B176" s="17" t="s">
         <v>21</v>
@@ -15509,7 +15604,7 @@
       </c>
       <c r="I176" s="17"/>
     </row>
-    <row r="177" spans="1:9" ht="15.75">
+    <row r="177" spans="1:9" ht="15">
       <c r="A177" s="17"/>
       <c r="B177" s="17" t="s">
         <v>21</v>
@@ -15532,7 +15627,7 @@
       </c>
       <c r="I177" s="17"/>
     </row>
-    <row r="178" spans="1:9" ht="15.75">
+    <row r="178" spans="1:9" ht="15">
       <c r="A178" s="17" t="b">
         <v>0</v>
       </c>
@@ -15551,7 +15646,7 @@
       <c r="H178" s="17"/>
       <c r="I178" s="17"/>
     </row>
-    <row r="179" spans="1:9" ht="15.75">
+    <row r="179" spans="1:9" ht="15">
       <c r="A179" s="17"/>
       <c r="B179" s="17" t="s">
         <v>21</v>
@@ -15574,7 +15669,7 @@
       </c>
       <c r="I179" s="17"/>
     </row>
-    <row r="180" spans="1:9" ht="15.75">
+    <row r="180" spans="1:9" ht="15">
       <c r="A180" s="17"/>
       <c r="B180" s="17" t="s">
         <v>21</v>
@@ -15597,7 +15692,7 @@
       </c>
       <c r="I180" s="17"/>
     </row>
-    <row r="181" spans="1:9" ht="15.75">
+    <row r="181" spans="1:9" ht="15">
       <c r="A181" s="17"/>
       <c r="B181" s="17" t="s">
         <v>21</v>
@@ -15620,7 +15715,7 @@
       </c>
       <c r="I181" s="17"/>
     </row>
-    <row r="182" spans="1:9" ht="15.75">
+    <row r="182" spans="1:9" ht="15">
       <c r="A182" s="17"/>
       <c r="B182" s="17" t="s">
         <v>21</v>
@@ -15643,7 +15738,7 @@
       </c>
       <c r="I182" s="17"/>
     </row>
-    <row r="183" spans="1:9" ht="15.75">
+    <row r="183" spans="1:9" ht="15">
       <c r="A183" s="17" t="b">
         <v>0</v>
       </c>
@@ -15662,7 +15757,7 @@
       <c r="H183" s="17"/>
       <c r="I183" s="17"/>
     </row>
-    <row r="184" spans="1:9" ht="15.75">
+    <row r="184" spans="1:9" ht="15">
       <c r="A184" s="17"/>
       <c r="B184" s="17" t="s">
         <v>21</v>
@@ -15685,7 +15780,7 @@
       </c>
       <c r="I184" s="17"/>
     </row>
-    <row r="185" spans="1:9" ht="15.75">
+    <row r="185" spans="1:9" ht="15">
       <c r="A185" s="17"/>
       <c r="B185" s="17" t="s">
         <v>21</v>
@@ -15708,7 +15803,7 @@
       </c>
       <c r="I185" s="17"/>
     </row>
-    <row r="186" spans="1:9" ht="15.75">
+    <row r="186" spans="1:9" ht="15">
       <c r="A186" s="17"/>
       <c r="B186" s="17" t="s">
         <v>21</v>
@@ -15731,7 +15826,7 @@
       </c>
       <c r="I186" s="17"/>
     </row>
-    <row r="187" spans="1:9" ht="15.75">
+    <row r="187" spans="1:9" ht="15">
       <c r="A187" s="17"/>
       <c r="B187" s="17" t="s">
         <v>21</v>
@@ -15754,7 +15849,7 @@
       </c>
       <c r="I187" s="17"/>
     </row>
-    <row r="188" spans="1:9" ht="15.75">
+    <row r="188" spans="1:9" ht="15">
       <c r="A188" s="17" t="b">
         <v>0</v>
       </c>
@@ -15773,7 +15868,7 @@
       <c r="H188" s="17"/>
       <c r="I188" s="17"/>
     </row>
-    <row r="189" spans="1:9" ht="15.75">
+    <row r="189" spans="1:9" ht="15">
       <c r="A189" s="17"/>
       <c r="B189" s="17" t="s">
         <v>21</v>
@@ -15794,7 +15889,7 @@
       <c r="H189" s="17"/>
       <c r="I189" s="17"/>
     </row>
-    <row r="190" spans="1:9" ht="15.75">
+    <row r="190" spans="1:9" ht="15">
       <c r="A190" s="17"/>
       <c r="B190" s="17" t="s">
         <v>21</v>
@@ -15817,7 +15912,7 @@
       </c>
       <c r="I190" s="17"/>
     </row>
-    <row r="191" spans="1:9" ht="15.75">
+    <row r="191" spans="1:9" ht="15">
       <c r="A191" s="17" t="b">
         <v>0</v>
       </c>
@@ -15836,7 +15931,7 @@
       <c r="H191" s="17"/>
       <c r="I191" s="17"/>
     </row>
-    <row r="192" spans="1:9" ht="15.75">
+    <row r="192" spans="1:9" ht="15">
       <c r="A192" s="17"/>
       <c r="B192" s="17" t="s">
         <v>21</v>
@@ -15859,7 +15954,7 @@
       </c>
       <c r="I192" s="17"/>
     </row>
-    <row r="193" spans="1:9" ht="15.75">
+    <row r="193" spans="1:9" ht="15">
       <c r="A193" s="17"/>
       <c r="B193" s="17" t="s">
         <v>21</v>
@@ -15884,7 +15979,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15.75">
+    <row r="194" spans="1:9" ht="15">
       <c r="A194" s="17"/>
       <c r="B194" s="17" t="s">
         <v>21</v>
@@ -15905,7 +16000,7 @@
       <c r="H194" s="17"/>
       <c r="I194" s="17"/>
     </row>
-    <row r="195" spans="1:9" ht="15.75">
+    <row r="195" spans="1:9" ht="15">
       <c r="A195" s="17"/>
       <c r="B195" s="17" t="s">
         <v>21</v>
@@ -15930,7 +16025,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15.75">
+    <row r="196" spans="1:9" ht="15">
       <c r="A196" s="17"/>
       <c r="B196" s="17" t="s">
         <v>21</v>
@@ -15955,7 +16050,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15.75">
+    <row r="197" spans="1:9" ht="15">
       <c r="A197" s="17" t="b">
         <v>0</v>
       </c>
@@ -15974,7 +16069,7 @@
       <c r="H197" s="17"/>
       <c r="I197" s="17"/>
     </row>
-    <row r="198" spans="1:9" ht="15.75">
+    <row r="198" spans="1:9" ht="15">
       <c r="A198" s="17"/>
       <c r="B198" s="17" t="s">
         <v>21</v>
@@ -15999,7 +16094,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="15.75">
+    <row r="199" spans="1:9" ht="15">
       <c r="A199" s="17"/>
       <c r="B199" s="17" t="s">
         <v>21</v>
@@ -16022,7 +16117,7 @@
       </c>
       <c r="I199" s="17"/>
     </row>
-    <row r="200" spans="1:9" ht="15.75">
+    <row r="200" spans="1:9" ht="15">
       <c r="A200" s="17"/>
       <c r="B200" s="17" t="s">
         <v>21</v>
@@ -16045,7 +16140,7 @@
       </c>
       <c r="I200" s="17"/>
     </row>
-    <row r="201" spans="1:9" ht="15.75">
+    <row r="201" spans="1:9" ht="15">
       <c r="A201" s="17"/>
       <c r="B201" s="17" t="s">
         <v>21</v>
@@ -16068,7 +16163,7 @@
       </c>
       <c r="I201" s="17"/>
     </row>
-    <row r="202" spans="1:9" ht="15.75">
+    <row r="202" spans="1:9" ht="15">
       <c r="A202" s="17"/>
       <c r="B202" s="17" t="s">
         <v>21</v>
@@ -16091,7 +16186,7 @@
       </c>
       <c r="I202" s="17"/>
     </row>
-    <row r="203" spans="1:9" ht="15.75">
+    <row r="203" spans="1:9" ht="15">
       <c r="A203" s="17"/>
       <c r="B203" s="17" t="s">
         <v>21</v>
@@ -16114,7 +16209,7 @@
       </c>
       <c r="I203" s="17"/>
     </row>
-    <row r="204" spans="1:9" ht="15.75">
+    <row r="204" spans="1:9" ht="15">
       <c r="A204" s="17"/>
       <c r="B204" s="17" t="s">
         <v>21</v>
@@ -16137,7 +16232,7 @@
       </c>
       <c r="I204" s="17"/>
     </row>
-    <row r="205" spans="1:9" ht="15.75">
+    <row r="205" spans="1:9" ht="15">
       <c r="A205" s="17"/>
       <c r="B205" s="17" t="s">
         <v>21</v>
@@ -16160,7 +16255,7 @@
       </c>
       <c r="I205" s="17"/>
     </row>
-    <row r="206" spans="1:9" ht="15.75">
+    <row r="206" spans="1:9" ht="15">
       <c r="A206" s="17"/>
       <c r="B206" s="17" t="s">
         <v>21</v>
@@ -16183,7 +16278,7 @@
       </c>
       <c r="I206" s="17"/>
     </row>
-    <row r="207" spans="1:9" ht="15.75">
+    <row r="207" spans="1:9" ht="15">
       <c r="A207" s="17" t="b">
         <v>0</v>
       </c>
@@ -16202,7 +16297,7 @@
       <c r="H207" s="17"/>
       <c r="I207" s="17"/>
     </row>
-    <row r="208" spans="1:9" ht="15.75">
+    <row r="208" spans="1:9" ht="15">
       <c r="A208" s="17"/>
       <c r="B208" s="17" t="s">
         <v>21</v>
@@ -16227,7 +16322,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="15.75">
+    <row r="209" spans="1:9" ht="15">
       <c r="A209" s="17"/>
       <c r="B209" s="17" t="s">
         <v>21</v>
@@ -16250,7 +16345,7 @@
       </c>
       <c r="I209" s="17"/>
     </row>
-    <row r="210" spans="1:9" ht="15.75">
+    <row r="210" spans="1:9" ht="15">
       <c r="A210" s="17"/>
       <c r="B210" s="17" t="s">
         <v>21</v>
@@ -16273,7 +16368,7 @@
       </c>
       <c r="I210" s="17"/>
     </row>
-    <row r="211" spans="1:9" ht="15.75">
+    <row r="211" spans="1:9" ht="15">
       <c r="A211" s="17"/>
       <c r="B211" s="17" t="s">
         <v>21</v>
@@ -16296,7 +16391,7 @@
       </c>
       <c r="I211" s="17"/>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
+    <row r="212" spans="1:9" ht="15">
       <c r="A212" s="17"/>
       <c r="B212" s="17" t="s">
         <v>21</v>
@@ -16319,7 +16414,7 @@
       </c>
       <c r="I212" s="17"/>
     </row>
-    <row r="213" spans="1:9" ht="15.75">
+    <row r="213" spans="1:9" ht="15">
       <c r="A213" s="17"/>
       <c r="B213" s="17" t="s">
         <v>21</v>
@@ -16342,7 +16437,7 @@
       </c>
       <c r="I213" s="17"/>
     </row>
-    <row r="214" spans="1:9" ht="15.75">
+    <row r="214" spans="1:9" ht="15">
       <c r="A214" s="17"/>
       <c r="B214" s="17" t="s">
         <v>21</v>
@@ -16365,7 +16460,7 @@
       </c>
       <c r="I214" s="17"/>
     </row>
-    <row r="215" spans="1:9" ht="15.75">
+    <row r="215" spans="1:9" ht="15">
       <c r="A215" s="17"/>
       <c r="B215" s="17" t="s">
         <v>21</v>
@@ -16388,7 +16483,7 @@
       </c>
       <c r="I215" s="17"/>
     </row>
-    <row r="216" spans="1:9" ht="15.75">
+    <row r="216" spans="1:9" ht="15">
       <c r="A216" s="17"/>
       <c r="B216" s="17" t="s">
         <v>21</v>
@@ -16411,7 +16506,7 @@
       </c>
       <c r="I216" s="17"/>
     </row>
-    <row r="217" spans="1:9" ht="15.75">
+    <row r="217" spans="1:9" ht="15">
       <c r="A217" s="17" t="b">
         <v>0</v>
       </c>
@@ -16430,7 +16525,7 @@
       <c r="H217" s="17"/>
       <c r="I217" s="17"/>
     </row>
-    <row r="218" spans="1:9" ht="15.75">
+    <row r="218" spans="1:9" ht="15">
       <c r="A218" s="17"/>
       <c r="B218" s="17" t="s">
         <v>21</v>
@@ -16451,7 +16546,7 @@
       <c r="H218" s="17"/>
       <c r="I218" s="17"/>
     </row>
-    <row r="219" spans="1:9" ht="15.75">
+    <row r="219" spans="1:9" ht="15">
       <c r="A219" s="17"/>
       <c r="B219" s="17" t="s">
         <v>21</v>
@@ -16474,7 +16569,7 @@
       </c>
       <c r="I219" s="17"/>
     </row>
-    <row r="220" spans="1:9" ht="15.75">
+    <row r="220" spans="1:9" ht="15">
       <c r="A220" s="17"/>
       <c r="B220" s="17" t="s">
         <v>21</v>
@@ -16497,7 +16592,7 @@
       </c>
       <c r="I220" s="17"/>
     </row>
-    <row r="221" spans="1:9" ht="15.75">
+    <row r="221" spans="1:9" ht="15">
       <c r="A221" s="17"/>
       <c r="B221" s="17" t="s">
         <v>21</v>
@@ -16520,7 +16615,7 @@
       </c>
       <c r="I221" s="17"/>
     </row>
-    <row r="222" spans="1:9" ht="15.75">
+    <row r="222" spans="1:9" ht="15">
       <c r="A222" s="17"/>
       <c r="B222" s="17" t="s">
         <v>21</v>
@@ -16543,7 +16638,7 @@
       </c>
       <c r="I222" s="17"/>
     </row>
-    <row r="223" spans="1:9" ht="15.75">
+    <row r="223" spans="1:9" ht="15">
       <c r="A223" s="17"/>
       <c r="B223" s="17" t="s">
         <v>21</v>
@@ -16566,7 +16661,7 @@
       </c>
       <c r="I223" s="17"/>
     </row>
-    <row r="224" spans="1:9" ht="15.75">
+    <row r="224" spans="1:9" ht="15">
       <c r="A224" s="17"/>
       <c r="B224" s="17" t="s">
         <v>21</v>
@@ -16589,7 +16684,7 @@
       </c>
       <c r="I224" s="17"/>
     </row>
-    <row r="225" spans="1:9" ht="15.75">
+    <row r="225" spans="1:9" ht="15">
       <c r="A225" s="17"/>
       <c r="B225" s="17" t="s">
         <v>21</v>
@@ -16612,7 +16707,7 @@
       </c>
       <c r="I225" s="17"/>
     </row>
-    <row r="226" spans="1:9" ht="15.75">
+    <row r="226" spans="1:9" ht="15">
       <c r="A226" s="17"/>
       <c r="B226" s="17" t="s">
         <v>21</v>
@@ -16635,7 +16730,7 @@
       </c>
       <c r="I226" s="17"/>
     </row>
-    <row r="227" spans="1:9" ht="15.75">
+    <row r="227" spans="1:9" ht="15">
       <c r="A227" s="17"/>
       <c r="B227" s="17" t="s">
         <v>21</v>
@@ -16658,7 +16753,7 @@
       </c>
       <c r="I227" s="17"/>
     </row>
-    <row r="228" spans="1:9" ht="15.75">
+    <row r="228" spans="1:9" ht="15">
       <c r="A228" s="17"/>
       <c r="B228" s="17" t="s">
         <v>21</v>
@@ -16681,7 +16776,7 @@
       </c>
       <c r="I228" s="17"/>
     </row>
-    <row r="229" spans="1:9" ht="15.75">
+    <row r="229" spans="1:9" ht="15">
       <c r="A229" s="17"/>
       <c r="B229" s="17" t="s">
         <v>21</v>
@@ -16704,7 +16799,7 @@
       </c>
       <c r="I229" s="17"/>
     </row>
-    <row r="230" spans="1:9" ht="15.75">
+    <row r="230" spans="1:9" ht="15">
       <c r="A230" s="17"/>
       <c r="B230" s="17" t="s">
         <v>21</v>
@@ -16727,7 +16822,7 @@
       </c>
       <c r="I230" s="17"/>
     </row>
-    <row r="231" spans="1:9" ht="15.75">
+    <row r="231" spans="1:9" ht="15">
       <c r="A231" s="17"/>
       <c r="B231" s="17" t="s">
         <v>21</v>
@@ -16750,7 +16845,7 @@
       </c>
       <c r="I231" s="17"/>
     </row>
-    <row r="232" spans="1:9" ht="15.75">
+    <row r="232" spans="1:9" ht="15">
       <c r="A232" s="17"/>
       <c r="B232" s="17" t="s">
         <v>21</v>
@@ -16773,7 +16868,7 @@
       </c>
       <c r="I232" s="17"/>
     </row>
-    <row r="233" spans="1:9" ht="15.75">
+    <row r="233" spans="1:9" ht="15">
       <c r="A233" s="17"/>
       <c r="B233" s="17" t="s">
         <v>21</v>
@@ -16796,7 +16891,7 @@
       </c>
       <c r="I233" s="17"/>
     </row>
-    <row r="234" spans="1:9" ht="15.75">
+    <row r="234" spans="1:9" ht="15">
       <c r="A234" s="17" t="b">
         <v>0</v>
       </c>
@@ -16815,7 +16910,7 @@
       <c r="H234" s="17"/>
       <c r="I234" s="17"/>
     </row>
-    <row r="235" spans="1:9" ht="15.75">
+    <row r="235" spans="1:9" ht="15">
       <c r="A235" s="17"/>
       <c r="B235" s="17" t="s">
         <v>21</v>
@@ -16836,7 +16931,7 @@
       <c r="H235" s="17"/>
       <c r="I235" s="17"/>
     </row>
-    <row r="236" spans="1:9" ht="15.75">
+    <row r="236" spans="1:9" ht="15">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
         <v>21</v>
@@ -16859,7 +16954,7 @@
       </c>
       <c r="I236" s="17"/>
     </row>
-    <row r="237" spans="1:9" ht="15.75">
+    <row r="237" spans="1:9" ht="15">
       <c r="A237" s="17"/>
       <c r="B237" s="17" t="s">
         <v>21</v>
@@ -16882,7 +16977,7 @@
       </c>
       <c r="I237" s="17"/>
     </row>
-    <row r="238" spans="1:9" ht="15.75">
+    <row r="238" spans="1:9" ht="15">
       <c r="A238" s="17"/>
       <c r="B238" s="17" t="s">
         <v>21</v>
@@ -16905,7 +17000,7 @@
       </c>
       <c r="I238" s="17"/>
     </row>
-    <row r="239" spans="1:9" ht="15.75">
+    <row r="239" spans="1:9" ht="15">
       <c r="A239" s="17"/>
       <c r="B239" s="17" t="s">
         <v>21</v>
@@ -16928,7 +17023,7 @@
       </c>
       <c r="I239" s="17"/>
     </row>
-    <row r="240" spans="1:9" ht="15.75">
+    <row r="240" spans="1:9" ht="15">
       <c r="A240" s="17"/>
       <c r="B240" s="17" t="s">
         <v>21</v>
@@ -16951,7 +17046,7 @@
       </c>
       <c r="I240" s="17"/>
     </row>
-    <row r="241" spans="1:9" ht="15.75">
+    <row r="241" spans="1:9" ht="15">
       <c r="A241" s="17"/>
       <c r="B241" s="17" t="s">
         <v>21</v>
@@ -16974,7 +17069,7 @@
       </c>
       <c r="I241" s="17"/>
     </row>
-    <row r="242" spans="1:9" ht="15.75">
+    <row r="242" spans="1:9" ht="15">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>21</v>
@@ -16997,7 +17092,7 @@
       </c>
       <c r="I242" s="17"/>
     </row>
-    <row r="243" spans="1:9" ht="15.75">
+    <row r="243" spans="1:9" ht="15">
       <c r="A243" s="17"/>
       <c r="B243" s="17" t="s">
         <v>21</v>
@@ -17020,7 +17115,7 @@
       </c>
       <c r="I243" s="17"/>
     </row>
-    <row r="244" spans="1:9" ht="15.75">
+    <row r="244" spans="1:9" ht="15">
       <c r="A244" s="17"/>
       <c r="B244" s="17" t="s">
         <v>21</v>
@@ -17043,7 +17138,7 @@
       </c>
       <c r="I244" s="17"/>
     </row>
-    <row r="245" spans="1:9" ht="15.75">
+    <row r="245" spans="1:9" ht="15">
       <c r="A245" s="17"/>
       <c r="B245" s="17" t="s">
         <v>21</v>
@@ -17066,7 +17161,7 @@
       </c>
       <c r="I245" s="17"/>
     </row>
-    <row r="246" spans="1:9" ht="15.75">
+    <row r="246" spans="1:9" ht="15">
       <c r="A246" s="17"/>
       <c r="B246" s="17" t="s">
         <v>21</v>
@@ -17089,7 +17184,7 @@
       </c>
       <c r="I246" s="17"/>
     </row>
-    <row r="247" spans="1:9" ht="15.75">
+    <row r="247" spans="1:9" ht="15">
       <c r="A247" s="17"/>
       <c r="B247" s="17" t="s">
         <v>21</v>
@@ -17112,7 +17207,7 @@
       </c>
       <c r="I247" s="17"/>
     </row>
-    <row r="248" spans="1:9" ht="15.75">
+    <row r="248" spans="1:9" ht="15">
       <c r="A248" s="17"/>
       <c r="B248" s="17" t="s">
         <v>21</v>
@@ -17135,7 +17230,7 @@
       </c>
       <c r="I248" s="17"/>
     </row>
-    <row r="249" spans="1:9" ht="15.75">
+    <row r="249" spans="1:9" ht="15">
       <c r="A249" s="17"/>
       <c r="B249" s="17" t="s">
         <v>21</v>
@@ -17158,7 +17253,7 @@
       </c>
       <c r="I249" s="17"/>
     </row>
-    <row r="250" spans="1:9" ht="15.75">
+    <row r="250" spans="1:9" ht="15">
       <c r="A250" s="17"/>
       <c r="B250" s="17" t="s">
         <v>21</v>
@@ -17181,7 +17276,7 @@
       </c>
       <c r="I250" s="17"/>
     </row>
-    <row r="251" spans="1:9" ht="15.75">
+    <row r="251" spans="1:9" ht="15">
       <c r="A251" s="17" t="b">
         <v>0</v>
       </c>
@@ -17200,7 +17295,7 @@
       <c r="H251" s="17"/>
       <c r="I251" s="17"/>
     </row>
-    <row r="252" spans="1:9" ht="15.75">
+    <row r="252" spans="1:9" ht="15">
       <c r="A252" s="17"/>
       <c r="B252" s="17" t="s">
         <v>21</v>
@@ -17225,7 +17320,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="15.75">
+    <row r="253" spans="1:9" ht="15">
       <c r="A253" s="17"/>
       <c r="B253" s="17" t="s">
         <v>21</v>
@@ -17248,7 +17343,7 @@
       </c>
       <c r="I253" s="17"/>
     </row>
-    <row r="254" spans="1:9" ht="15.75">
+    <row r="254" spans="1:9" ht="15">
       <c r="A254" s="17"/>
       <c r="B254" s="17" t="s">
         <v>21</v>
@@ -17271,7 +17366,7 @@
       </c>
       <c r="I254" s="17"/>
     </row>
-    <row r="255" spans="1:9" ht="15.75">
+    <row r="255" spans="1:9" ht="15">
       <c r="A255" s="17"/>
       <c r="B255" s="17" t="s">
         <v>21</v>
@@ -17294,7 +17389,7 @@
       </c>
       <c r="I255" s="17"/>
     </row>
-    <row r="256" spans="1:9" ht="15.75">
+    <row r="256" spans="1:9" ht="15">
       <c r="A256" s="17"/>
       <c r="B256" s="17" t="s">
         <v>21</v>
@@ -17317,7 +17412,7 @@
       </c>
       <c r="I256" s="17"/>
     </row>
-    <row r="257" spans="1:9" ht="15.75">
+    <row r="257" spans="1:9" ht="15">
       <c r="A257" s="17" t="b">
         <v>0</v>
       </c>
@@ -17336,7 +17431,7 @@
       <c r="H257" s="17"/>
       <c r="I257" s="17"/>
     </row>
-    <row r="258" spans="1:9" ht="15.75">
+    <row r="258" spans="1:9" ht="15">
       <c r="A258" s="17"/>
       <c r="B258" s="17" t="s">
         <v>21</v>
@@ -17361,7 +17456,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="15.75">
+    <row r="259" spans="1:9" ht="15">
       <c r="A259" s="17"/>
       <c r="B259" s="17" t="s">
         <v>21</v>
@@ -17384,7 +17479,7 @@
       </c>
       <c r="I259" s="17"/>
     </row>
-    <row r="260" spans="1:9" ht="15.75">
+    <row r="260" spans="1:9" ht="15">
       <c r="A260" s="17" t="b">
         <v>0</v>
       </c>
@@ -17403,7 +17498,7 @@
       <c r="H260" s="17"/>
       <c r="I260" s="17"/>
     </row>
-    <row r="261" spans="1:9" ht="15.75">
+    <row r="261" spans="1:9" ht="15">
       <c r="A261" s="17" t="b">
         <v>0</v>
       </c>
@@ -17422,7 +17517,7 @@
       <c r="H261" s="17"/>
       <c r="I261" s="17"/>
     </row>
-    <row r="262" spans="1:9" ht="15.75">
+    <row r="262" spans="1:9" ht="15">
       <c r="A262" s="17" t="b">
         <v>0</v>
       </c>
@@ -17441,7 +17536,7 @@
       <c r="H262" s="17"/>
       <c r="I262" s="17"/>
     </row>
-    <row r="263" spans="1:9" ht="15.75">
+    <row r="263" spans="1:9" ht="15">
       <c r="A263" s="17"/>
       <c r="B263" s="17" t="s">
         <v>21</v>
@@ -17462,7 +17557,7 @@
       <c r="H263" s="17"/>
       <c r="I263" s="17"/>
     </row>
-    <row r="264" spans="1:9" ht="15.75">
+    <row r="264" spans="1:9" ht="15">
       <c r="A264" s="17"/>
       <c r="B264" s="17" t="s">
         <v>21</v>
@@ -17485,7 +17580,7 @@
       </c>
       <c r="I264" s="17"/>
     </row>
-    <row r="265" spans="1:9" ht="15.75">
+    <row r="265" spans="1:9" ht="15">
       <c r="A265" s="17"/>
       <c r="B265" s="17" t="s">
         <v>21</v>
@@ -17508,7 +17603,7 @@
       </c>
       <c r="I265" s="17"/>
     </row>
-    <row r="266" spans="1:9" ht="15.75">
+    <row r="266" spans="1:9" ht="15">
       <c r="A266" s="17"/>
       <c r="B266" s="17" t="s">
         <v>21</v>
@@ -17531,7 +17626,7 @@
       </c>
       <c r="I266" s="17"/>
     </row>
-    <row r="267" spans="1:9" ht="15.75">
+    <row r="267" spans="1:9" ht="15">
       <c r="A267" s="17"/>
       <c r="B267" s="17" t="s">
         <v>21</v>
@@ -17554,7 +17649,7 @@
       </c>
       <c r="I267" s="17"/>
     </row>
-    <row r="268" spans="1:9" ht="15.75">
+    <row r="268" spans="1:9" ht="15">
       <c r="A268" s="17"/>
       <c r="B268" s="17" t="s">
         <v>21</v>
@@ -17577,7 +17672,7 @@
       </c>
       <c r="I268" s="17"/>
     </row>
-    <row r="269" spans="1:9" ht="15.75">
+    <row r="269" spans="1:9" ht="15">
       <c r="A269" s="17"/>
       <c r="B269" s="17" t="s">
         <v>21</v>
@@ -17600,7 +17695,7 @@
       </c>
       <c r="I269" s="17"/>
     </row>
-    <row r="270" spans="1:9" ht="15.75">
+    <row r="270" spans="1:9" ht="15">
       <c r="A270" s="17"/>
       <c r="B270" s="17" t="s">
         <v>21</v>
@@ -17623,7 +17718,7 @@
       </c>
       <c r="I270" s="17"/>
     </row>
-    <row r="271" spans="1:9" ht="15.75">
+    <row r="271" spans="1:9" ht="15">
       <c r="A271" s="17"/>
       <c r="B271" s="17" t="s">
         <v>21</v>
@@ -17646,7 +17741,7 @@
       </c>
       <c r="I271" s="17"/>
     </row>
-    <row r="272" spans="1:9" ht="15.75">
+    <row r="272" spans="1:9" ht="15">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
         <v>21</v>
@@ -17669,7 +17764,7 @@
       </c>
       <c r="I272" s="17"/>
     </row>
-    <row r="273" spans="1:9" ht="15.75">
+    <row r="273" spans="1:9" ht="15">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
         <v>21</v>
@@ -17692,7 +17787,7 @@
       </c>
       <c r="I273" s="17"/>
     </row>
-    <row r="274" spans="1:9" ht="15.75">
+    <row r="274" spans="1:9" ht="15">
       <c r="A274" s="17" t="b">
         <v>0</v>
       </c>
@@ -17711,7 +17806,7 @@
       <c r="H274" s="17"/>
       <c r="I274" s="17"/>
     </row>
-    <row r="275" spans="1:9" ht="15.75">
+    <row r="275" spans="1:9" ht="15">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
         <v>21</v>
@@ -17734,7 +17829,7 @@
       </c>
       <c r="I275" s="17"/>
     </row>
-    <row r="276" spans="1:9" ht="15.75">
+    <row r="276" spans="1:9" ht="15">
       <c r="A276" s="17" t="b">
         <v>0</v>
       </c>
@@ -17753,7 +17848,7 @@
       <c r="H276" s="17"/>
       <c r="I276" s="17"/>
     </row>
-    <row r="277" spans="1:9" ht="15.75">
+    <row r="277" spans="1:9" ht="15">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
         <v>21</v>
@@ -17778,7 +17873,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="15.75">
+    <row r="278" spans="1:9" ht="15">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
         <v>21</v>
@@ -17801,7 +17896,7 @@
       </c>
       <c r="I278" s="17"/>
     </row>
-    <row r="279" spans="1:9" ht="15.75">
+    <row r="279" spans="1:9" ht="15">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
         <v>21</v>
@@ -17824,7 +17919,7 @@
       </c>
       <c r="I279" s="17"/>
     </row>
-    <row r="280" spans="1:9" ht="15.75">
+    <row r="280" spans="1:9" ht="15">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
         <v>21</v>
@@ -17847,7 +17942,7 @@
       </c>
       <c r="I280" s="17"/>
     </row>
-    <row r="281" spans="1:9" ht="15.75">
+    <row r="281" spans="1:9" ht="15">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
         <v>21</v>
@@ -17870,7 +17965,7 @@
       </c>
       <c r="I281" s="17"/>
     </row>
-    <row r="282" spans="1:9" ht="15.75">
+    <row r="282" spans="1:9" ht="15">
       <c r="A282" s="17"/>
       <c r="B282" s="17" t="s">
         <v>21</v>
@@ -17893,7 +17988,7 @@
       </c>
       <c r="I282" s="17"/>
     </row>
-    <row r="283" spans="1:9" ht="15.75">
+    <row r="283" spans="1:9" ht="15">
       <c r="A283" s="17"/>
       <c r="B283" s="17" t="s">
         <v>21</v>
@@ -17916,7 +18011,7 @@
       </c>
       <c r="I283" s="17"/>
     </row>
-    <row r="284" spans="1:9" ht="15.75">
+    <row r="284" spans="1:9" ht="15">
       <c r="A284" s="17"/>
       <c r="B284" s="17" t="s">
         <v>21</v>
@@ -17939,7 +18034,7 @@
       </c>
       <c r="I284" s="17"/>
     </row>
-    <row r="285" spans="1:9" ht="15.75">
+    <row r="285" spans="1:9" ht="15">
       <c r="A285" s="17"/>
       <c r="B285" s="17" t="s">
         <v>21</v>
@@ -17962,7 +18057,7 @@
       </c>
       <c r="I285" s="17"/>
     </row>
-    <row r="286" spans="1:9" ht="15.75">
+    <row r="286" spans="1:9" ht="15">
       <c r="A286" s="17"/>
       <c r="B286" s="17" t="s">
         <v>21</v>
@@ -17985,7 +18080,7 @@
       </c>
       <c r="I286" s="17"/>
     </row>
-    <row r="287" spans="1:9" ht="15.75">
+    <row r="287" spans="1:9" ht="15">
       <c r="A287" s="17"/>
       <c r="B287" s="17" t="s">
         <v>21</v>
@@ -18008,7 +18103,7 @@
       </c>
       <c r="I287" s="17"/>
     </row>
-    <row r="288" spans="1:9" ht="15.75">
+    <row r="288" spans="1:9" ht="15">
       <c r="A288" s="17" t="b">
         <v>0</v>
       </c>
@@ -18027,7 +18122,7 @@
       <c r="H288" s="17"/>
       <c r="I288" s="17"/>
     </row>
-    <row r="289" spans="1:9" ht="15.75">
+    <row r="289" spans="1:9" ht="15">
       <c r="A289" s="17"/>
       <c r="B289" s="17" t="s">
         <v>21</v>
@@ -18050,7 +18145,7 @@
       </c>
       <c r="I289" s="17"/>
     </row>
-    <row r="290" spans="1:9" ht="15.75">
+    <row r="290" spans="1:9" ht="15">
       <c r="A290" s="17" t="b">
         <v>0</v>
       </c>
@@ -18069,7 +18164,7 @@
       <c r="H290" s="17"/>
       <c r="I290" s="17"/>
     </row>
-    <row r="291" spans="1:9" ht="15.75">
+    <row r="291" spans="1:9" ht="15">
       <c r="A291" s="17"/>
       <c r="B291" s="17" t="s">
         <v>21</v>
@@ -18090,7 +18185,7 @@
       <c r="H291" s="17"/>
       <c r="I291" s="17"/>
     </row>
-    <row r="292" spans="1:9" ht="15.75">
+    <row r="292" spans="1:9" ht="15">
       <c r="A292" s="17" t="b">
         <v>0</v>
       </c>
@@ -18109,7 +18204,7 @@
       <c r="H292" s="17"/>
       <c r="I292" s="17"/>
     </row>
-    <row r="293" spans="1:9" ht="15.75">
+    <row r="293" spans="1:9" ht="15">
       <c r="A293" s="17"/>
       <c r="B293" s="17" t="s">
         <v>21</v>
@@ -18130,7 +18225,7 @@
       <c r="H293" s="17"/>
       <c r="I293" s="17"/>
     </row>
-    <row r="294" spans="1:9" ht="15.75">
+    <row r="294" spans="1:9" ht="15">
       <c r="A294" s="17" t="b">
         <v>0</v>
       </c>
@@ -18149,7 +18244,7 @@
       <c r="H294" s="17"/>
       <c r="I294" s="17"/>
     </row>
-    <row r="295" spans="1:9" ht="15.75">
+    <row r="295" spans="1:9" ht="15">
       <c r="A295" s="17"/>
       <c r="B295" s="17" t="s">
         <v>21</v>
@@ -18170,7 +18265,7 @@
       <c r="H295" s="17"/>
       <c r="I295" s="17"/>
     </row>
-    <row r="296" spans="1:9" ht="15.75">
+    <row r="296" spans="1:9" ht="15">
       <c r="A296" s="17" t="b">
         <v>0</v>
       </c>
@@ -18189,7 +18284,7 @@
       <c r="H296" s="17"/>
       <c r="I296" s="17"/>
     </row>
-    <row r="297" spans="1:9" ht="15.75">
+    <row r="297" spans="1:9" ht="15">
       <c r="A297" s="17"/>
       <c r="B297" s="17" t="s">
         <v>21</v>
@@ -18212,7 +18307,7 @@
       </c>
       <c r="I297" s="17"/>
     </row>
-    <row r="298" spans="1:9" ht="15.75">
+    <row r="298" spans="1:9" ht="15">
       <c r="A298" s="17" t="b">
         <v>0</v>
       </c>
@@ -18231,7 +18326,7 @@
       <c r="H298" s="17"/>
       <c r="I298" s="17"/>
     </row>
-    <row r="299" spans="1:9" ht="15.75">
+    <row r="299" spans="1:9" ht="15">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
         <v>21</v>
@@ -18256,7 +18351,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="15.75">
+    <row r="300" spans="1:9" ht="15">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
         <v>21</v>
@@ -18279,7 +18374,7 @@
       </c>
       <c r="I300" s="17"/>
     </row>
-    <row r="301" spans="1:9" ht="15.75">
+    <row r="301" spans="1:9" ht="15">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
         <v>21</v>
@@ -18302,7 +18397,7 @@
       </c>
       <c r="I301" s="17"/>
     </row>
-    <row r="302" spans="1:9" ht="15.75">
+    <row r="302" spans="1:9" ht="15">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
         <v>21</v>
@@ -18325,7 +18420,7 @@
       </c>
       <c r="I302" s="17"/>
     </row>
-    <row r="303" spans="1:9" ht="15.75">
+    <row r="303" spans="1:9" ht="15">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
         <v>21</v>
@@ -18348,7 +18443,7 @@
       </c>
       <c r="I303" s="17"/>
     </row>
-    <row r="304" spans="1:9" ht="15.75">
+    <row r="304" spans="1:9" ht="15">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
         <v>21</v>
@@ -18371,7 +18466,7 @@
       </c>
       <c r="I304" s="17"/>
     </row>
-    <row r="305" spans="1:9" ht="15.75">
+    <row r="305" spans="1:9" ht="15">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
         <v>21</v>
@@ -18394,7 +18489,7 @@
       </c>
       <c r="I305" s="17"/>
     </row>
-    <row r="306" spans="1:9" ht="15.75">
+    <row r="306" spans="1:9" ht="15">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
         <v>21</v>
@@ -18417,7 +18512,7 @@
       </c>
       <c r="I306" s="17"/>
     </row>
-    <row r="307" spans="1:9" ht="15.75">
+    <row r="307" spans="1:9" ht="15">
       <c r="A307" s="17"/>
       <c r="B307" s="17" t="s">
         <v>21</v>
@@ -18440,7 +18535,7 @@
       </c>
       <c r="I307" s="17"/>
     </row>
-    <row r="308" spans="1:9" ht="15.75">
+    <row r="308" spans="1:9" ht="15">
       <c r="A308" s="17" t="b">
         <v>0</v>
       </c>
@@ -18459,7 +18554,7 @@
       <c r="H308" s="17"/>
       <c r="I308" s="17"/>
     </row>
-    <row r="309" spans="1:9" ht="15.75">
+    <row r="309" spans="1:9" ht="15">
       <c r="A309" s="17"/>
       <c r="B309" s="17" t="s">
         <v>21</v>
@@ -18482,7 +18577,7 @@
       </c>
       <c r="I309" s="17"/>
     </row>
-    <row r="310" spans="1:9" ht="15.75">
+    <row r="310" spans="1:9" ht="15">
       <c r="A310" s="17"/>
       <c r="B310" s="17" t="s">
         <v>21</v>
@@ -18505,7 +18600,7 @@
       </c>
       <c r="I310" s="17"/>
     </row>
-    <row r="311" spans="1:9" ht="15.75">
+    <row r="311" spans="1:9" ht="15">
       <c r="A311" s="17"/>
       <c r="B311" s="17" t="s">
         <v>21</v>
@@ -18528,7 +18623,7 @@
       </c>
       <c r="I311" s="17"/>
     </row>
-    <row r="312" spans="1:9" ht="15.75">
+    <row r="312" spans="1:9" ht="15">
       <c r="A312" s="17"/>
       <c r="B312" s="17" t="s">
         <v>21</v>
@@ -18551,7 +18646,7 @@
       </c>
       <c r="I312" s="17"/>
     </row>
-    <row r="313" spans="1:9" ht="15.75">
+    <row r="313" spans="1:9" ht="15">
       <c r="A313" s="17" t="b">
         <v>0</v>
       </c>
@@ -18570,7 +18665,7 @@
       <c r="H313" s="17"/>
       <c r="I313" s="17"/>
     </row>
-    <row r="314" spans="1:9" ht="15.75">
+    <row r="314" spans="1:9" ht="15">
       <c r="A314" s="17"/>
       <c r="B314" s="17" t="s">
         <v>21</v>
@@ -18593,7 +18688,7 @@
       </c>
       <c r="I314" s="17"/>
     </row>
-    <row r="315" spans="1:9" ht="15.75">
+    <row r="315" spans="1:9" ht="15">
       <c r="A315" s="17"/>
       <c r="B315" s="17" t="s">
         <v>21</v>
@@ -18616,7 +18711,7 @@
       </c>
       <c r="I315" s="17"/>
     </row>
-    <row r="316" spans="1:9" ht="15.75">
+    <row r="316" spans="1:9" ht="15">
       <c r="A316" s="17"/>
       <c r="B316" s="17" t="s">
         <v>21</v>
@@ -18641,7 +18736,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="15.75">
+    <row r="317" spans="1:9" ht="15">
       <c r="A317" s="17" t="b">
         <v>0</v>
       </c>
@@ -18660,7 +18755,7 @@
       <c r="H317" s="17"/>
       <c r="I317" s="17"/>
     </row>
-    <row r="318" spans="1:9" ht="15.75">
+    <row r="318" spans="1:9" ht="15">
       <c r="A318" s="17"/>
       <c r="B318" s="17" t="s">
         <v>21</v>
@@ -18685,7 +18780,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="15.75">
+    <row r="319" spans="1:9" ht="15">
       <c r="A319" s="17"/>
       <c r="B319" s="17" t="s">
         <v>21</v>
@@ -18708,7 +18803,7 @@
       </c>
       <c r="I319" s="17"/>
     </row>
-    <row r="320" spans="1:9" ht="15.75">
+    <row r="320" spans="1:9" ht="15">
       <c r="A320" s="17" t="b">
         <v>0</v>
       </c>
@@ -18727,7 +18822,7 @@
       <c r="H320" s="17"/>
       <c r="I320" s="17"/>
     </row>
-    <row r="321" spans="1:9" ht="15.75">
+    <row r="321" spans="1:9" ht="15">
       <c r="A321" s="17"/>
       <c r="B321" s="17" t="s">
         <v>21</v>
@@ -18748,7 +18843,7 @@
       <c r="H321" s="17"/>
       <c r="I321" s="17"/>
     </row>
-    <row r="322" spans="1:9" ht="15.75">
+    <row r="322" spans="1:9" ht="15">
       <c r="A322" s="17"/>
       <c r="B322" s="17" t="s">
         <v>21</v>
@@ -18769,7 +18864,7 @@
       <c r="H322" s="17"/>
       <c r="I322" s="17"/>
     </row>
-    <row r="323" spans="1:9" ht="15.75">
+    <row r="323" spans="1:9" ht="15">
       <c r="A323" s="17"/>
       <c r="B323" s="17" t="s">
         <v>21</v>
@@ -18792,7 +18887,7 @@
       </c>
       <c r="I323" s="17"/>
     </row>
-    <row r="324" spans="1:9" ht="15.75">
+    <row r="324" spans="1:9" ht="15">
       <c r="A324" s="17" t="b">
         <v>0</v>
       </c>
@@ -18811,7 +18906,7 @@
       <c r="H324" s="17"/>
       <c r="I324" s="17"/>
     </row>
-    <row r="325" spans="1:9" ht="15.75">
+    <row r="325" spans="1:9" ht="15">
       <c r="A325" s="17" t="b">
         <v>0</v>
       </c>
@@ -18830,7 +18925,7 @@
       <c r="H325" s="17"/>
       <c r="I325" s="17"/>
     </row>
-    <row r="326" spans="1:9" ht="15.75">
+    <row r="326" spans="1:9" ht="15">
       <c r="A326" s="17"/>
       <c r="B326" s="17" t="s">
         <v>21</v>
@@ -18855,7 +18950,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="15.75">
+    <row r="327" spans="1:9" ht="15">
       <c r="A327" s="17"/>
       <c r="B327" s="17" t="s">
         <v>21</v>
@@ -19212,7 +19307,7 @@
       <c r="O343" s="1"/>
       <c r="P343" s="1"/>
     </row>
-    <row r="344" spans="1:16" ht="15.75">
+    <row r="344" spans="1:16" ht="15">
       <c r="A344" s="17"/>
       <c r="B344" t="s">
         <v>21</v>
@@ -19575,7 +19670,7 @@
       <c r="J361"/>
       <c r="K361"/>
     </row>
-    <row r="362" spans="1:18" s="1" customFormat="1" ht="15.75">
+    <row r="362" spans="1:18" s="1" customFormat="1" ht="15">
       <c r="A362" s="17"/>
       <c r="B362" t="s">
         <v>22</v>
@@ -19703,14 +19798,14 @@
       <selection activeCell="A17" sqref="A17:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
-    <col min="17" max="17" width="24.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
+    <col min="17" max="17" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">

--- a/projects/office_ee_Sys3.xlsx
+++ b/projects/office_ee_Sys3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="13740" tabRatio="562" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="893">
   <si>
     <t>type</t>
   </si>
@@ -2699,6 +2699,27 @@
   </si>
   <si>
     <t>calibration_reports.gas_bill_consumption_nmbe</t>
+  </si>
+  <si>
+    <t>[false,true]</t>
+  </si>
+  <si>
+    <t>discrete_uncertain</t>
+  </si>
+  <si>
+    <t>['EnableDCV','DisableDCV','NoChange']</t>
+  </si>
+  <si>
+    <t>['FixedDryBulb','NoEconomizer','NoChange']</t>
+  </si>
+  <si>
+    <t>NoChange</t>
+  </si>
+  <si>
+    <t>NoEconomizer</t>
+  </si>
+  <si>
+    <t>DisableDCV</t>
   </si>
 </sst>
 </file>
@@ -2876,7 +2897,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1828">
+  <cellStyleXfs count="1838">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4627,6 +4648,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4814,9 +4845,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4827,8 +4855,11 @@
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1828">
+  <cellStyles count="1838">
     <cellStyle name="Comma" xfId="1749" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -5743,6 +5774,11 @@
     <cellStyle name="Followed Hyperlink" xfId="1823" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1825" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="1827" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1829" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1831" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1833" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1835" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1837" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -6656,6 +6692,11 @@
     <cellStyle name="Hyperlink" xfId="1822" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1824" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1826" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1828" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1830" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1832" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1834" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1836" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -7425,9 +7466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A126" sqref="A102:XFD126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7440,13 +7481,14 @@
     <col min="6" max="6" width="9.6640625" style="31" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" style="31" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="8.83203125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.1640625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" style="31" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" style="31" customWidth="1"/>
-    <col min="13" max="14" width="7.83203125" style="31" customWidth="1"/>
-    <col min="15" max="15" width="11.5" style="31"/>
-    <col min="16" max="16" width="11.5" style="31" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="31" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="34.5" style="31" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="23" style="31" customWidth="1"/>
     <col min="18" max="18" width="27.6640625" style="31" customWidth="1"/>
     <col min="19" max="19" width="46.1640625" style="31" customWidth="1"/>
@@ -7481,14 +7523,14 @@
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
     </row>
     <row r="2" spans="1:25" s="8" customFormat="1" ht="15">
       <c r="A2" s="8" t="s">
@@ -9941,22 +9983,45 @@
       <c r="Q109" s="51"/>
     </row>
     <row r="110" spans="1:17">
-      <c r="B110" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D110" s="31" t="s">
+      <c r="A110" s="42"/>
+      <c r="B110" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C110" s="42"/>
+      <c r="D110" s="42" t="s">
         <v>827</v>
       </c>
-      <c r="E110" s="31" t="s">
+      <c r="E110" s="42" t="s">
         <v>826</v>
       </c>
-      <c r="F110" s="31" t="s">
+      <c r="F110" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="H110" s="31" t="b">
+      <c r="G110" s="42"/>
+      <c r="H110" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" s="42"/>
+      <c r="J110" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="K110" s="44" t="b">
         <v>1</v>
       </c>
-      <c r="I110" s="30"/>
+      <c r="L110" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="M110" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N110" s="44"/>
+      <c r="O110" s="44" t="s">
+        <v>886</v>
+      </c>
+      <c r="P110" s="42"/>
+      <c r="Q110" s="46" t="s">
+        <v>887</v>
+      </c>
     </row>
     <row r="111" spans="1:17" s="22" customFormat="1">
       <c r="A111" s="22" t="b">
@@ -10197,23 +10262,46 @@
       <c r="Q121" s="51"/>
     </row>
     <row r="122" spans="1:17">
-      <c r="B122" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D122" s="31" t="s">
+      <c r="A122" s="42"/>
+      <c r="B122" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C122" s="42"/>
+      <c r="D122" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="E122" s="31" t="s">
+      <c r="E122" s="42" t="s">
         <v>823</v>
       </c>
-      <c r="F122" s="30" t="s">
+      <c r="F122" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H122" s="31" t="s">
+      <c r="G122" s="42"/>
+      <c r="H122" s="42" t="s">
         <v>822</v>
       </c>
-      <c r="I122" s="30" t="s">
+      <c r="I122" s="42" t="s">
         <v>821</v>
+      </c>
+      <c r="J122" s="42" t="s">
+        <v>892</v>
+      </c>
+      <c r="K122" s="42" t="s">
+        <v>822</v>
+      </c>
+      <c r="L122" s="42" t="s">
+        <v>890</v>
+      </c>
+      <c r="M122" s="42" t="s">
+        <v>890</v>
+      </c>
+      <c r="N122" s="42"/>
+      <c r="O122" s="42" t="s">
+        <v>888</v>
+      </c>
+      <c r="P122" s="42"/>
+      <c r="Q122" s="46" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="123" spans="1:17" s="48" customFormat="1">
@@ -10241,23 +10329,46 @@
       <c r="Q123" s="51"/>
     </row>
     <row r="124" spans="1:17">
-      <c r="B124" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D124" s="31" t="s">
+      <c r="A124" s="42"/>
+      <c r="B124" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" s="42"/>
+      <c r="D124" s="42" t="s">
         <v>789</v>
       </c>
-      <c r="E124" s="31" t="s">
+      <c r="E124" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="F124" s="30" t="s">
+      <c r="F124" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H124" s="31" t="s">
+      <c r="G124" s="42"/>
+      <c r="H124" s="42" t="s">
         <v>828</v>
       </c>
-      <c r="I124" s="30" t="s">
+      <c r="I124" s="42" t="s">
         <v>829</v>
+      </c>
+      <c r="J124" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="K124" s="42" t="s">
+        <v>891</v>
+      </c>
+      <c r="L124" s="42" t="s">
+        <v>890</v>
+      </c>
+      <c r="M124" s="42" t="s">
+        <v>890</v>
+      </c>
+      <c r="N124" s="42"/>
+      <c r="O124" s="42" t="s">
+        <v>889</v>
+      </c>
+      <c r="P124" s="42"/>
+      <c r="Q124" s="46" t="s">
+        <v>887</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -10645,9 +10756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L33"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -10664,920 +10775,920 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18">
-      <c r="A1" s="55"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="A1" s="54"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55" t="s">
         <v>467</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="53"/>
     </row>
     <row r="2" spans="1:12" s="8" customFormat="1" ht="15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="56" t="s">
         <v>459</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="57" t="s">
         <v>637</v>
       </c>
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="56" t="s">
         <v>622</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="56" t="s">
         <v>623</v>
       </c>
-      <c r="H2" s="57" t="s">
+      <c r="H2" s="56" t="s">
         <v>624</v>
       </c>
-      <c r="I2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="J2" s="56" t="s">
         <v>626</v>
       </c>
-      <c r="K2" s="57" t="s">
+      <c r="K2" s="56" t="s">
         <v>627</v>
       </c>
-      <c r="L2" s="57"/>
+      <c r="L2" s="56"/>
     </row>
     <row r="3" spans="1:12" s="14" customFormat="1" ht="30">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="57" t="s">
         <v>628</v>
       </c>
-      <c r="B3" s="58" t="s">
+      <c r="B3" s="57" t="s">
         <v>642</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="57" t="s">
         <v>631</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58" t="s">
+      <c r="D3" s="57"/>
+      <c r="E3" s="57" t="s">
         <v>629</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="G3" s="58" t="s">
+      <c r="G3" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="H3" s="58" t="s">
+      <c r="H3" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="I3" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="58" t="s">
         <v>619</v>
       </c>
-      <c r="K3" s="58" t="s">
+      <c r="K3" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="57" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="53" t="s">
         <v>644</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>638</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>634</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="54" t="b">
+      <c r="F4" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="54" t="b">
+      <c r="G4" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
+      <c r="H4" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>645</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>639</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>635</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="54" t="b">
+      <c r="F5" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
+      <c r="H5" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="53" t="s">
         <v>646</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>641</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="53" t="s">
         <v>632</v>
       </c>
-      <c r="D6" s="54" t="s">
+      <c r="D6" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F6" s="54" t="b">
+      <c r="F6" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G6" s="54" t="b">
+      <c r="G6" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="H6" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="53" t="s">
         <v>647</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>640</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>633</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="54" t="b">
+      <c r="F7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G7" s="54" t="b">
+      <c r="G7" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="H7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>838</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54" t="s">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53" t="s">
         <v>839</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F8" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="54" t="b">
+      <c r="F8" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H8" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
+      <c r="H8" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>840</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54" t="s">
+      <c r="B9" s="53"/>
+      <c r="C9" s="53" t="s">
         <v>841</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F9" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="54" t="b">
+      <c r="F9" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H9" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
+      <c r="H9" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>842</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="53"/>
+      <c r="C10" s="53" t="s">
         <v>843</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="54" t="b">
+      <c r="F10" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H10" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
+      <c r="H10" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>844</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="53" t="s">
         <v>845</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F11" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="54" t="b">
+      <c r="F11" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H11" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
+      <c r="H11" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="53" t="s">
         <v>846</v>
       </c>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54" t="s">
+      <c r="B12" s="53"/>
+      <c r="C12" s="53" t="s">
         <v>847</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="54" t="b">
+      <c r="F12" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H12" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
+      <c r="H12" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="53" t="s">
         <v>848</v>
       </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="53"/>
+      <c r="C13" s="53" t="s">
         <v>849</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="54" t="b">
+      <c r="F13" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H13" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
+      <c r="H13" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="53" t="s">
         <v>850</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54" t="s">
+      <c r="B14" s="53"/>
+      <c r="C14" s="53" t="s">
         <v>851</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="54" t="b">
+      <c r="F14" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H14" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
+      <c r="H14" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>852</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54" t="s">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53" t="s">
         <v>853</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="54" t="b">
+      <c r="F15" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
+      <c r="H15" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="53" t="s">
         <v>854</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54" t="s">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53" t="s">
         <v>855</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D16" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="54" t="b">
+      <c r="F16" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H16" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
+      <c r="H16" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" s="53"/>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="53"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="53" t="s">
         <v>856</v>
       </c>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54" t="s">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53" t="s">
         <v>857</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E17" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="54" t="b">
+      <c r="F17" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
+      <c r="H17" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="53" t="s">
         <v>858</v>
       </c>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54" t="s">
+      <c r="B18" s="53"/>
+      <c r="C18" s="53" t="s">
         <v>859</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D18" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G18" s="54" t="b">
+      <c r="F18" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H18" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
+      <c r="H18" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" s="53"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="53"/>
+      <c r="L18" s="53"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="53" t="s">
         <v>860</v>
       </c>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54" t="s">
+      <c r="B19" s="53"/>
+      <c r="C19" s="53" t="s">
         <v>861</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E19" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F19" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="54" t="b">
+      <c r="F19" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
+      <c r="H19" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" s="53"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="53"/>
+      <c r="L19" s="53"/>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="53" t="s">
         <v>862</v>
       </c>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54" t="s">
+      <c r="B20" s="53"/>
+      <c r="C20" s="53" t="s">
         <v>863</v>
       </c>
-      <c r="D20" s="54" t="s">
+      <c r="D20" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G20" s="54" t="b">
+      <c r="F20" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H20" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
+      <c r="H20" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="53"/>
+      <c r="L20" s="53"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="53" t="s">
         <v>864</v>
       </c>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54" t="s">
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
         <v>865</v>
       </c>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="53" t="s">
         <v>468</v>
       </c>
-      <c r="E21" s="54" t="s">
+      <c r="E21" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F21" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="54" t="b">
+      <c r="F21" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
+      <c r="H21" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="53"/>
     </row>
     <row r="22" spans="1:12">
-      <c r="A22" s="54" t="s">
+      <c r="A22" s="53" t="s">
         <v>866</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54" t="s">
+      <c r="B22" s="53"/>
+      <c r="C22" s="53" t="s">
         <v>867</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="53" t="s">
         <v>868</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="54" t="b">
+      <c r="F22" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H22" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
+      <c r="H22" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="53"/>
+      <c r="L22" s="53"/>
     </row>
     <row r="23" spans="1:12">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="53" t="s">
         <v>869</v>
       </c>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54" t="s">
+      <c r="B23" s="53"/>
+      <c r="C23" s="53" t="s">
         <v>870</v>
       </c>
-      <c r="D23" s="54" t="s">
+      <c r="D23" s="53" t="s">
         <v>868</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F23" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="54" t="b">
+      <c r="F23" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
+      <c r="H23" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="53"/>
+      <c r="J23" s="53"/>
+      <c r="K23" s="53"/>
+      <c r="L23" s="53"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="53" t="s">
         <v>871</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53" t="s">
         <v>872</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="53" t="s">
         <v>868</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="G24" s="54" t="b">
+      <c r="F24" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="G24" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H24" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
+      <c r="H24" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="53" t="s">
         <v>873</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="53" t="s">
         <v>874</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="53" t="s">
         <v>875</v>
       </c>
-      <c r="E25" s="54" t="s">
+      <c r="E25" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="54" t="b">
+      <c r="F25" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G25" s="54" t="b">
+      <c r="G25" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H25" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
+      <c r="H25" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="53"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="53" t="s">
         <v>706</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="53" t="s">
         <v>876</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="53" t="s">
         <v>707</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="54" t="b">
+      <c r="F26" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G26" s="54" t="b">
+      <c r="G26" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H26" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
+      <c r="H26" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="53"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="53" t="s">
         <v>708</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="53" t="s">
         <v>877</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>709</v>
       </c>
-      <c r="E27" s="54" t="s">
+      <c r="E27" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="54" t="b">
+      <c r="F27" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G27" s="54" t="b">
+      <c r="G27" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H27" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
+      <c r="H27" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="53"/>
     </row>
     <row r="28" spans="1:12">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="53" t="s">
         <v>878</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="53" t="s">
         <v>879</v>
       </c>
-      <c r="D28" s="54" t="s">
+      <c r="D28" s="53" t="s">
         <v>769</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="54" t="b">
+      <c r="F28" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G28" s="54" t="b">
+      <c r="G28" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H28" s="54" t="b">
+      <c r="H28" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="I28" s="54">
-        <v>0</v>
-      </c>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
+      <c r="I28" s="53">
+        <v>0</v>
+      </c>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
     </row>
     <row r="29" spans="1:12">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="53" t="s">
         <v>880</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53" t="s">
         <v>881</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="53" t="s">
         <v>769</v>
       </c>
-      <c r="E29" s="54" t="s">
+      <c r="E29" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="54" t="b">
+      <c r="F29" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G29" s="54" t="b">
+      <c r="G29" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H29" s="54" t="b">
+      <c r="H29" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="I29" s="54">
-        <v>0</v>
-      </c>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
+      <c r="I29" s="53">
+        <v>0</v>
+      </c>
+      <c r="J29" s="53"/>
+      <c r="K29" s="53"/>
+      <c r="L29" s="53"/>
     </row>
     <row r="30" spans="1:12">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="53" t="s">
         <v>882</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="53" t="s">
         <v>883</v>
       </c>
-      <c r="D30" s="54" t="s">
+      <c r="D30" s="53" t="s">
         <v>769</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F30" s="54" t="b">
+      <c r="F30" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G30" s="54" t="b">
+      <c r="G30" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H30" s="54" t="b">
+      <c r="H30" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="I30" s="54">
-        <v>0</v>
-      </c>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
+      <c r="I30" s="53">
+        <v>0</v>
+      </c>
+      <c r="J30" s="53"/>
+      <c r="K30" s="53"/>
+      <c r="L30" s="53"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="53" t="s">
         <v>884</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="53" t="s">
         <v>885</v>
       </c>
-      <c r="D31" s="54" t="s">
+      <c r="D31" s="53" t="s">
         <v>769</v>
       </c>
-      <c r="E31" s="54" t="s">
+      <c r="E31" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="54" t="b">
+      <c r="F31" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="G31" s="54" t="b">
+      <c r="G31" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="H31" s="54" t="b">
+      <c r="H31" s="53" t="b">
         <v>1</v>
       </c>
-      <c r="I31" s="54">
-        <v>0</v>
-      </c>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
+      <c r="I31" s="53">
+        <v>0</v>
+      </c>
+      <c r="J31" s="53"/>
+      <c r="K31" s="53"/>
+      <c r="L31" s="53"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="53"/>
+      <c r="I32" s="53"/>
+      <c r="J32" s="53"/>
+      <c r="K32" s="53"/>
+      <c r="L32" s="53"/>
     </row>
     <row r="33" spans="1:12">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="53"/>
+      <c r="H33" s="53"/>
+      <c r="I33" s="53"/>
+      <c r="J33" s="53"/>
+      <c r="K33" s="53"/>
+      <c r="L33" s="53"/>
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="30"/>

--- a/projects/office_ee_Sys3.xlsx
+++ b/projects/office_ee_Sys3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="27640" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="562" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2644,30 +2644,18 @@
     <t>Unmet Cooling Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_cooling</t>
-  </si>
-  <si>
     <t>hrs</t>
   </si>
   <si>
     <t>Unmet Heating Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_heating</t>
-  </si>
-  <si>
     <t>Total Unmet Hours</t>
   </si>
   <si>
-    <t>standard_report.time_setpoint_not_met_during_occupied_hours</t>
-  </si>
-  <si>
     <t>Building Area</t>
   </si>
   <si>
-    <t>standard_report.total_building_area</t>
-  </si>
-  <si>
     <t>m2</t>
   </si>
   <si>
@@ -2720,6 +2708,18 @@
   </si>
   <si>
     <t>DisableDCV</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_cooling</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_heating</t>
+  </si>
+  <si>
+    <t>standard_reports.time_setpoint_not_met_during_occupied_hours</t>
+  </si>
+  <si>
+    <t>standard_reports.total_building_area</t>
   </si>
 </sst>
 </file>
@@ -7466,7 +7466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y207"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A126" sqref="A102:XFD126"/>
     </sheetView>
@@ -10016,11 +10016,11 @@
       </c>
       <c r="N110" s="44"/>
       <c r="O110" s="44" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="P110" s="42"/>
       <c r="Q110" s="46" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="111" spans="1:17" s="22" customFormat="1">
@@ -10284,24 +10284,24 @@
         <v>821</v>
       </c>
       <c r="J122" s="42" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="K122" s="42" t="s">
         <v>822</v>
       </c>
       <c r="L122" s="42" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="M122" s="42" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="N122" s="42"/>
       <c r="O122" s="42" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="P122" s="42"/>
       <c r="Q122" s="46" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="123" spans="1:17" s="48" customFormat="1">
@@ -10351,24 +10351,24 @@
         <v>829</v>
       </c>
       <c r="J124" s="42" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="K124" s="42" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="L124" s="42" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="M124" s="42" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="N124" s="42"/>
       <c r="O124" s="42" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="P124" s="42"/>
       <c r="Q124" s="46" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
     </row>
     <row r="125" spans="1:17">
@@ -10756,9 +10756,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -11379,11 +11379,11 @@
         <v>866</v>
       </c>
       <c r="B22" s="53"/>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="30" t="s">
+        <v>889</v>
+      </c>
+      <c r="D22" s="53" t="s">
         <v>867</v>
-      </c>
-      <c r="D22" s="53" t="s">
-        <v>868</v>
       </c>
       <c r="E22" s="53" t="s">
         <v>64</v>
@@ -11404,14 +11404,14 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="53" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B23" s="53"/>
-      <c r="C23" s="53" t="s">
-        <v>870</v>
+      <c r="C23" s="30" t="s">
+        <v>890</v>
       </c>
       <c r="D23" s="53" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E23" s="53" t="s">
         <v>64</v>
@@ -11432,14 +11432,14 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="53" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B24" s="53"/>
-      <c r="C24" s="53" t="s">
-        <v>872</v>
+      <c r="C24" s="30" t="s">
+        <v>891</v>
       </c>
       <c r="D24" s="53" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E24" s="53" t="s">
         <v>64</v>
@@ -11460,14 +11460,14 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="53" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="B25" s="53"/>
-      <c r="C25" s="53" t="s">
-        <v>874</v>
+      <c r="C25" s="30" t="s">
+        <v>892</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="E25" s="53" t="s">
         <v>64</v>
@@ -11492,7 +11492,7 @@
       </c>
       <c r="B26" s="53"/>
       <c r="C26" s="53" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>707</v>
@@ -11520,7 +11520,7 @@
       </c>
       <c r="B27" s="53"/>
       <c r="C27" s="53" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="D27" s="53" t="s">
         <v>709</v>
@@ -11544,11 +11544,11 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="53" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="53" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="D28" s="53" t="s">
         <v>769</v>
@@ -11574,11 +11574,11 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="53" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="B29" s="53"/>
       <c r="C29" s="53" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D29" s="53" t="s">
         <v>769</v>
@@ -11604,11 +11604,11 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="53" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="B30" s="53"/>
       <c r="C30" s="53" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="D30" s="53" t="s">
         <v>769</v>
@@ -11634,11 +11634,11 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="53" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="B31" s="53"/>
       <c r="C31" s="53" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D31" s="53" t="s">
         <v>769</v>
